--- a/gui-train.xlsx
+++ b/gui-train.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$397</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$406</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="14">
   <si>
     <t>Well Name</t>
   </si>
@@ -1218,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J397"/>
+  <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D401" sqref="D401"/>
+      <selection activeCell="D412" sqref="D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -13930,8 +13930,296 @@
         <v>3.15</v>
       </c>
     </row>
+    <row r="398" spans="1:10">
+      <c r="A398" t="s">
+        <v>11</v>
+      </c>
+      <c r="B398">
+        <v>2615.625</v>
+      </c>
+      <c r="C398">
+        <v>3</v>
+      </c>
+      <c r="D398">
+        <v>213.388</v>
+      </c>
+      <c r="E398">
+        <v>226.21</v>
+      </c>
+      <c r="F398">
+        <v>2.613</v>
+      </c>
+      <c r="G398">
+        <v>7.306</v>
+      </c>
+      <c r="H398">
+        <v>40.447</v>
+      </c>
+      <c r="I398">
+        <v>42.848</v>
+      </c>
+      <c r="J398">
+        <v>2.431</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10">
+      <c r="A399" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399">
+        <v>2615.75</v>
+      </c>
+      <c r="C399">
+        <v>3</v>
+      </c>
+      <c r="D399">
+        <v>203.697</v>
+      </c>
+      <c r="E399">
+        <v>228.734</v>
+      </c>
+      <c r="F399">
+        <v>2.61</v>
+      </c>
+      <c r="G399">
+        <v>7.849</v>
+      </c>
+      <c r="H399">
+        <v>30.651</v>
+      </c>
+      <c r="I399">
+        <v>32.818</v>
+      </c>
+      <c r="J399">
+        <v>2.231</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10">
+      <c r="A400" t="s">
+        <v>11</v>
+      </c>
+      <c r="B400">
+        <v>2615.875</v>
+      </c>
+      <c r="C400">
+        <v>3</v>
+      </c>
+      <c r="D400">
+        <v>210.302</v>
+      </c>
+      <c r="E400">
+        <v>234.457</v>
+      </c>
+      <c r="F400">
+        <v>2.569</v>
+      </c>
+      <c r="G400">
+        <v>9.559</v>
+      </c>
+      <c r="H400">
+        <v>21.823</v>
+      </c>
+      <c r="I400">
+        <v>23.516</v>
+      </c>
+      <c r="J400">
+        <v>2.081</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="A401" t="s">
+        <v>11</v>
+      </c>
+      <c r="B401">
+        <v>2615.625</v>
+      </c>
+      <c r="C401">
+        <v>3</v>
+      </c>
+      <c r="D401">
+        <v>213.388</v>
+      </c>
+      <c r="E401">
+        <v>226.21</v>
+      </c>
+      <c r="F401">
+        <v>2.613</v>
+      </c>
+      <c r="G401">
+        <v>7.306</v>
+      </c>
+      <c r="H401">
+        <v>40.447</v>
+      </c>
+      <c r="I401">
+        <v>42.848</v>
+      </c>
+      <c r="J401">
+        <v>2.431</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
+      <c r="A402" t="s">
+        <v>11</v>
+      </c>
+      <c r="B402">
+        <v>2615.75</v>
+      </c>
+      <c r="C402">
+        <v>3</v>
+      </c>
+      <c r="D402">
+        <v>203.697</v>
+      </c>
+      <c r="E402">
+        <v>228.734</v>
+      </c>
+      <c r="F402">
+        <v>2.61</v>
+      </c>
+      <c r="G402">
+        <v>7.849</v>
+      </c>
+      <c r="H402">
+        <v>30.651</v>
+      </c>
+      <c r="I402">
+        <v>32.818</v>
+      </c>
+      <c r="J402">
+        <v>2.231</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10">
+      <c r="A403" t="s">
+        <v>11</v>
+      </c>
+      <c r="B403">
+        <v>2615.875</v>
+      </c>
+      <c r="C403">
+        <v>3</v>
+      </c>
+      <c r="D403">
+        <v>210.302</v>
+      </c>
+      <c r="E403">
+        <v>234.457</v>
+      </c>
+      <c r="F403">
+        <v>2.569</v>
+      </c>
+      <c r="G403">
+        <v>9.559</v>
+      </c>
+      <c r="H403">
+        <v>21.823</v>
+      </c>
+      <c r="I403">
+        <v>23.516</v>
+      </c>
+      <c r="J403">
+        <v>2.081</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10">
+      <c r="A404" t="s">
+        <v>11</v>
+      </c>
+      <c r="B404">
+        <v>2615.625</v>
+      </c>
+      <c r="C404">
+        <v>3</v>
+      </c>
+      <c r="D404">
+        <v>213.388</v>
+      </c>
+      <c r="E404">
+        <v>226.21</v>
+      </c>
+      <c r="F404">
+        <v>2.613</v>
+      </c>
+      <c r="G404">
+        <v>7.306</v>
+      </c>
+      <c r="H404">
+        <v>40.447</v>
+      </c>
+      <c r="I404">
+        <v>42.848</v>
+      </c>
+      <c r="J404">
+        <v>2.431</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10">
+      <c r="A405" t="s">
+        <v>11</v>
+      </c>
+      <c r="B405">
+        <v>2615.75</v>
+      </c>
+      <c r="C405">
+        <v>3</v>
+      </c>
+      <c r="D405">
+        <v>203.697</v>
+      </c>
+      <c r="E405">
+        <v>228.734</v>
+      </c>
+      <c r="F405">
+        <v>2.61</v>
+      </c>
+      <c r="G405">
+        <v>7.849</v>
+      </c>
+      <c r="H405">
+        <v>30.651</v>
+      </c>
+      <c r="I405">
+        <v>32.818</v>
+      </c>
+      <c r="J405">
+        <v>2.231</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406" t="s">
+        <v>11</v>
+      </c>
+      <c r="B406">
+        <v>2615.875</v>
+      </c>
+      <c r="C406">
+        <v>3</v>
+      </c>
+      <c r="D406">
+        <v>210.302</v>
+      </c>
+      <c r="E406">
+        <v>234.457</v>
+      </c>
+      <c r="F406">
+        <v>2.569</v>
+      </c>
+      <c r="G406">
+        <v>9.559</v>
+      </c>
+      <c r="H406">
+        <v>21.823</v>
+      </c>
+      <c r="I406">
+        <v>23.516</v>
+      </c>
+      <c r="J406">
+        <v>2.081</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C397" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C406" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gui-train.xlsx
+++ b/gui-train.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$406</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$394</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="14">
   <si>
     <t>Well Name</t>
   </si>
@@ -1218,13 +1218,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J406"/>
+  <dimension ref="A1:J394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D412" sqref="D412"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9.66666666666667"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -9231,31 +9234,31 @@
         <v>11</v>
       </c>
       <c r="B251">
-        <v>2615.625</v>
+        <v>2617.625</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>213.388</v>
+        <v>199.499</v>
       </c>
       <c r="E251">
-        <v>226.21</v>
+        <v>247.019</v>
       </c>
       <c r="F251">
-        <v>2.613</v>
+        <v>2.465</v>
       </c>
       <c r="G251">
-        <v>7.306</v>
+        <v>8.646</v>
       </c>
       <c r="H251">
-        <v>40.447</v>
+        <v>22.333</v>
       </c>
       <c r="I251">
-        <v>42.848</v>
+        <v>23.443</v>
       </c>
       <c r="J251">
-        <v>2.431</v>
+        <v>2.364</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -9263,31 +9266,31 @@
         <v>11</v>
       </c>
       <c r="B252">
-        <v>2615.75</v>
+        <v>2617.75</v>
       </c>
       <c r="C252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>203.697</v>
+        <v>202.452</v>
       </c>
       <c r="E252">
-        <v>228.734</v>
+        <v>248.231</v>
       </c>
       <c r="F252">
-        <v>2.61</v>
+        <v>2.462</v>
       </c>
       <c r="G252">
-        <v>7.849</v>
+        <v>9.069</v>
       </c>
       <c r="H252">
-        <v>30.651</v>
+        <v>21.16</v>
       </c>
       <c r="I252">
-        <v>32.818</v>
+        <v>22.022</v>
       </c>
       <c r="J252">
-        <v>2.231</v>
+        <v>2.368</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -9295,31 +9298,31 @@
         <v>11</v>
       </c>
       <c r="B253">
-        <v>2615.875</v>
+        <v>2617.875</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>210.302</v>
+        <v>201.064</v>
       </c>
       <c r="E253">
-        <v>234.457</v>
+        <v>248.967</v>
       </c>
       <c r="F253">
-        <v>2.569</v>
+        <v>2.465</v>
       </c>
       <c r="G253">
-        <v>9.559</v>
+        <v>9.755</v>
       </c>
       <c r="H253">
-        <v>21.823</v>
+        <v>22.042</v>
       </c>
       <c r="I253">
-        <v>23.516</v>
+        <v>22.707</v>
       </c>
       <c r="J253">
-        <v>2.081</v>
+        <v>2.332</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -9327,31 +9330,31 @@
         <v>11</v>
       </c>
       <c r="B254">
-        <v>2617.625</v>
+        <v>2618.5</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>199.499</v>
+        <v>174.656</v>
       </c>
       <c r="E254">
-        <v>247.019</v>
+        <v>247.25</v>
       </c>
       <c r="F254">
-        <v>2.465</v>
+        <v>2.458</v>
       </c>
       <c r="G254">
-        <v>8.646</v>
+        <v>9.24</v>
       </c>
       <c r="H254">
-        <v>22.333</v>
+        <v>22.67</v>
       </c>
       <c r="I254">
-        <v>23.443</v>
+        <v>24.36</v>
       </c>
       <c r="J254">
-        <v>2.364</v>
+        <v>2.197</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -9359,31 +9362,31 @@
         <v>11</v>
       </c>
       <c r="B255">
-        <v>2617.75</v>
+        <v>2618.625</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>202.452</v>
+        <v>168.856</v>
       </c>
       <c r="E255">
-        <v>248.231</v>
+        <v>246.184</v>
       </c>
       <c r="F255">
-        <v>2.462</v>
+        <v>2.465</v>
       </c>
       <c r="G255">
-        <v>9.069</v>
+        <v>9.695</v>
       </c>
       <c r="H255">
-        <v>21.16</v>
+        <v>20.94</v>
       </c>
       <c r="I255">
-        <v>22.022</v>
+        <v>21.966</v>
       </c>
       <c r="J255">
-        <v>2.368</v>
+        <v>2.323</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -9391,31 +9394,31 @@
         <v>11</v>
       </c>
       <c r="B256">
-        <v>2617.875</v>
+        <v>2618.75</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>201.064</v>
+        <v>162.439</v>
       </c>
       <c r="E256">
-        <v>248.967</v>
+        <v>244.483</v>
       </c>
       <c r="F256">
-        <v>2.465</v>
+        <v>2.469</v>
       </c>
       <c r="G256">
-        <v>9.755</v>
+        <v>10.233</v>
       </c>
       <c r="H256">
-        <v>22.042</v>
+        <v>27.069</v>
       </c>
       <c r="I256">
-        <v>22.707</v>
+        <v>27.822</v>
       </c>
       <c r="J256">
-        <v>2.332</v>
+        <v>2.489</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -9423,31 +9426,31 @@
         <v>11</v>
       </c>
       <c r="B257">
-        <v>2618.5</v>
+        <v>2619.625</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>174.656</v>
+        <v>142.771</v>
       </c>
       <c r="E257">
-        <v>247.25</v>
+        <v>247.148</v>
       </c>
       <c r="F257">
-        <v>2.458</v>
+        <v>2.526</v>
       </c>
       <c r="G257">
-        <v>9.24</v>
+        <v>12.827</v>
       </c>
       <c r="H257">
-        <v>22.67</v>
+        <v>40.365</v>
       </c>
       <c r="I257">
-        <v>24.36</v>
+        <v>44.89</v>
       </c>
       <c r="J257">
-        <v>2.197</v>
+        <v>3.247</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -9455,31 +9458,31 @@
         <v>11</v>
       </c>
       <c r="B258">
-        <v>2618.625</v>
+        <v>2619.75</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>168.856</v>
+        <v>138.054</v>
       </c>
       <c r="E258">
-        <v>246.184</v>
+        <v>249.61</v>
       </c>
       <c r="F258">
-        <v>2.465</v>
+        <v>2.53</v>
       </c>
       <c r="G258">
-        <v>9.695</v>
+        <v>14.202</v>
       </c>
       <c r="H258">
-        <v>20.94</v>
+        <v>30.583</v>
       </c>
       <c r="I258">
-        <v>21.966</v>
+        <v>34.561</v>
       </c>
       <c r="J258">
-        <v>2.323</v>
+        <v>3.199</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -9487,31 +9490,31 @@
         <v>11</v>
       </c>
       <c r="B259">
-        <v>2618.75</v>
+        <v>2619.875</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>162.439</v>
+        <v>134.219</v>
       </c>
       <c r="E259">
-        <v>244.483</v>
+        <v>251.71</v>
       </c>
       <c r="F259">
-        <v>2.469</v>
+        <v>2.532</v>
       </c>
       <c r="G259">
-        <v>10.233</v>
+        <v>14.315</v>
       </c>
       <c r="H259">
-        <v>27.069</v>
+        <v>21.225</v>
       </c>
       <c r="I259">
-        <v>27.822</v>
+        <v>24.288</v>
       </c>
       <c r="J259">
-        <v>2.489</v>
+        <v>3.124</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -9519,31 +9522,31 @@
         <v>11</v>
       </c>
       <c r="B260">
-        <v>2619.625</v>
+        <v>2620.5</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>142.771</v>
+        <v>158.97</v>
       </c>
       <c r="E260">
-        <v>247.148</v>
+        <v>269.262</v>
       </c>
       <c r="F260">
-        <v>2.526</v>
+        <v>2.527</v>
       </c>
       <c r="G260">
-        <v>12.827</v>
+        <v>15.911</v>
       </c>
       <c r="H260">
-        <v>40.365</v>
+        <v>24.883</v>
       </c>
       <c r="I260">
-        <v>44.89</v>
+        <v>26.057</v>
       </c>
       <c r="J260">
-        <v>3.247</v>
+        <v>3.728</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -9551,31 +9554,31 @@
         <v>11</v>
       </c>
       <c r="B261">
-        <v>2619.75</v>
+        <v>2620.625</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>138.054</v>
+        <v>168.608</v>
       </c>
       <c r="E261">
-        <v>249.61</v>
+        <v>273.406</v>
       </c>
       <c r="F261">
-        <v>2.53</v>
+        <v>2.535</v>
       </c>
       <c r="G261">
-        <v>14.202</v>
+        <v>16.95</v>
       </c>
       <c r="H261">
-        <v>30.583</v>
+        <v>33.092</v>
       </c>
       <c r="I261">
-        <v>34.561</v>
+        <v>35.107</v>
       </c>
       <c r="J261">
-        <v>3.199</v>
+        <v>4.109</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -9583,127 +9586,127 @@
         <v>11</v>
       </c>
       <c r="B262">
-        <v>2619.875</v>
+        <v>2620.75</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>134.219</v>
+        <v>176.637</v>
       </c>
       <c r="E262">
-        <v>251.71</v>
+        <v>275.844</v>
       </c>
       <c r="F262">
-        <v>2.532</v>
+        <v>2.545</v>
       </c>
       <c r="G262">
-        <v>14.315</v>
+        <v>17.949</v>
       </c>
       <c r="H262">
-        <v>21.225</v>
+        <v>37.602</v>
       </c>
       <c r="I262">
-        <v>24.288</v>
+        <v>40.31</v>
       </c>
       <c r="J262">
-        <v>3.124</v>
+        <v>4.435</v>
       </c>
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B263">
-        <v>2620.5</v>
+        <v>3096.75</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>158.97</v>
+        <v>182.256</v>
       </c>
       <c r="E263">
-        <v>269.262</v>
+        <v>236.111</v>
       </c>
       <c r="F263">
-        <v>2.527</v>
+        <v>2.637</v>
       </c>
       <c r="G263">
-        <v>15.911</v>
+        <v>15.29</v>
       </c>
       <c r="H263">
-        <v>24.883</v>
+        <v>52.927</v>
       </c>
       <c r="I263">
-        <v>26.057</v>
+        <v>53.185</v>
       </c>
       <c r="J263">
-        <v>3.728</v>
+        <v>3.637</v>
       </c>
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B264">
-        <v>2620.625</v>
+        <v>3096.875</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264">
-        <v>168.608</v>
+        <v>180.725</v>
       </c>
       <c r="E264">
-        <v>273.406</v>
+        <v>235.613</v>
       </c>
       <c r="F264">
-        <v>2.535</v>
+        <v>2.638</v>
       </c>
       <c r="G264">
-        <v>16.95</v>
+        <v>15.253</v>
       </c>
       <c r="H264">
-        <v>33.092</v>
+        <v>54.985</v>
       </c>
       <c r="I264">
-        <v>35.107</v>
+        <v>55.35</v>
       </c>
       <c r="J264">
-        <v>4.109</v>
+        <v>3.649</v>
       </c>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B265">
-        <v>2620.75</v>
+        <v>3097</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>176.637</v>
+        <v>180.748</v>
       </c>
       <c r="E265">
-        <v>275.844</v>
+        <v>234.721</v>
       </c>
       <c r="F265">
-        <v>2.545</v>
+        <v>2.634</v>
       </c>
       <c r="G265">
-        <v>17.949</v>
+        <v>15.251</v>
       </c>
       <c r="H265">
-        <v>37.602</v>
+        <v>57.085</v>
       </c>
       <c r="I265">
-        <v>40.31</v>
+        <v>57.579</v>
       </c>
       <c r="J265">
-        <v>4.435</v>
+        <v>3.714</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -9711,31 +9714,31 @@
         <v>12</v>
       </c>
       <c r="B266">
-        <v>3096.75</v>
+        <v>3102.75</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>182.256</v>
+        <v>175.825</v>
       </c>
       <c r="E266">
-        <v>236.111</v>
+        <v>238.701</v>
       </c>
       <c r="F266">
-        <v>2.637</v>
+        <v>2.675</v>
       </c>
       <c r="G266">
-        <v>15.29</v>
+        <v>14.182</v>
       </c>
       <c r="H266">
-        <v>52.927</v>
+        <v>59.448</v>
       </c>
       <c r="I266">
-        <v>53.185</v>
+        <v>60.096</v>
       </c>
       <c r="J266">
-        <v>3.637</v>
+        <v>3.447</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -9743,31 +9746,31 @@
         <v>12</v>
       </c>
       <c r="B267">
-        <v>3096.875</v>
+        <v>3102.875</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>180.725</v>
+        <v>170.635</v>
       </c>
       <c r="E267">
-        <v>235.613</v>
+        <v>239.118</v>
       </c>
       <c r="F267">
-        <v>2.638</v>
+        <v>2.665</v>
       </c>
       <c r="G267">
-        <v>15.253</v>
+        <v>14.142</v>
       </c>
       <c r="H267">
-        <v>54.985</v>
+        <v>52.35</v>
       </c>
       <c r="I267">
-        <v>55.35</v>
+        <v>52.903</v>
       </c>
       <c r="J267">
-        <v>3.649</v>
+        <v>3.291</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -9775,31 +9778,31 @@
         <v>12</v>
       </c>
       <c r="B268">
-        <v>3097</v>
+        <v>3103</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>180.748</v>
+        <v>168.991</v>
       </c>
       <c r="E268">
-        <v>234.721</v>
+        <v>239.973</v>
       </c>
       <c r="F268">
-        <v>2.634</v>
+        <v>2.652</v>
       </c>
       <c r="G268">
-        <v>15.251</v>
+        <v>14.285</v>
       </c>
       <c r="H268">
-        <v>57.085</v>
+        <v>44.585</v>
       </c>
       <c r="I268">
-        <v>57.579</v>
+        <v>45.508</v>
       </c>
       <c r="J268">
-        <v>3.714</v>
+        <v>3.251</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -9807,31 +9810,31 @@
         <v>12</v>
       </c>
       <c r="B269">
-        <v>3102.75</v>
+        <v>3113.75</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>175.825</v>
+        <v>181.889</v>
       </c>
       <c r="E269">
-        <v>238.701</v>
+        <v>250.357</v>
       </c>
       <c r="F269">
-        <v>2.675</v>
+        <v>2.584</v>
       </c>
       <c r="G269">
-        <v>14.182</v>
+        <v>15.285</v>
       </c>
       <c r="H269">
-        <v>59.448</v>
+        <v>60.521</v>
       </c>
       <c r="I269">
-        <v>60.096</v>
+        <v>63.127</v>
       </c>
       <c r="J269">
-        <v>3.447</v>
+        <v>2.806</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -9839,31 +9842,31 @@
         <v>12</v>
       </c>
       <c r="B270">
-        <v>3102.875</v>
+        <v>3113.875</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>170.635</v>
+        <v>183.554</v>
       </c>
       <c r="E270">
-        <v>239.118</v>
+        <v>249.723</v>
       </c>
       <c r="F270">
-        <v>2.665</v>
+        <v>2.583</v>
       </c>
       <c r="G270">
-        <v>14.142</v>
+        <v>14.805</v>
       </c>
       <c r="H270">
-        <v>52.35</v>
+        <v>62.51</v>
       </c>
       <c r="I270">
-        <v>52.903</v>
+        <v>64.981</v>
       </c>
       <c r="J270">
-        <v>3.291</v>
+        <v>2.824</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9871,31 +9874,31 @@
         <v>12</v>
       </c>
       <c r="B271">
-        <v>3103</v>
+        <v>3114</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>168.991</v>
+        <v>187.087</v>
       </c>
       <c r="E271">
-        <v>239.973</v>
+        <v>249.924</v>
       </c>
       <c r="F271">
-        <v>2.652</v>
+        <v>2.579</v>
       </c>
       <c r="G271">
-        <v>14.285</v>
+        <v>14.338</v>
       </c>
       <c r="H271">
-        <v>44.585</v>
+        <v>64.317</v>
       </c>
       <c r="I271">
-        <v>45.508</v>
+        <v>66.713</v>
       </c>
       <c r="J271">
-        <v>3.251</v>
+        <v>2.941</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -9903,31 +9906,31 @@
         <v>12</v>
       </c>
       <c r="B272">
-        <v>3113.75</v>
+        <v>3121.75</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>181.889</v>
+        <v>197.751</v>
       </c>
       <c r="E272">
-        <v>250.357</v>
+        <v>243.829</v>
       </c>
       <c r="F272">
-        <v>2.584</v>
+        <v>2.59</v>
       </c>
       <c r="G272">
-        <v>15.285</v>
+        <v>13.681</v>
       </c>
       <c r="H272">
-        <v>60.521</v>
+        <v>67.485</v>
       </c>
       <c r="I272">
-        <v>63.127</v>
+        <v>68.694</v>
       </c>
       <c r="J272">
-        <v>2.806</v>
+        <v>3.764</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -9935,31 +9938,31 @@
         <v>12</v>
       </c>
       <c r="B273">
-        <v>3113.875</v>
+        <v>3121.875</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>183.554</v>
+        <v>199.076</v>
       </c>
       <c r="E273">
-        <v>249.723</v>
+        <v>242.273</v>
       </c>
       <c r="F273">
-        <v>2.583</v>
+        <v>2.591</v>
       </c>
       <c r="G273">
-        <v>14.805</v>
+        <v>13.563</v>
       </c>
       <c r="H273">
-        <v>62.51</v>
+        <v>52.444</v>
       </c>
       <c r="I273">
-        <v>64.981</v>
+        <v>53.078</v>
       </c>
       <c r="J273">
-        <v>2.824</v>
+        <v>3.817</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -9967,31 +9970,31 @@
         <v>12</v>
       </c>
       <c r="B274">
-        <v>3114</v>
+        <v>3122</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>187.087</v>
+        <v>200.575</v>
       </c>
       <c r="E274">
-        <v>249.924</v>
+        <v>242.398</v>
       </c>
       <c r="F274">
-        <v>2.579</v>
+        <v>2.597</v>
       </c>
       <c r="G274">
-        <v>14.338</v>
+        <v>13.482</v>
       </c>
       <c r="H274">
-        <v>64.317</v>
+        <v>37.139</v>
       </c>
       <c r="I274">
-        <v>66.713</v>
+        <v>37.661</v>
       </c>
       <c r="J274">
-        <v>2.941</v>
+        <v>3.862</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -9999,31 +10002,31 @@
         <v>12</v>
       </c>
       <c r="B275">
-        <v>3121.75</v>
+        <v>3122.75</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>197.751</v>
+        <v>199.617</v>
       </c>
       <c r="E275">
-        <v>243.829</v>
+        <v>244.583</v>
       </c>
       <c r="F275">
-        <v>2.59</v>
+        <v>2.581</v>
       </c>
       <c r="G275">
-        <v>13.681</v>
+        <v>13.715</v>
       </c>
       <c r="H275">
-        <v>67.485</v>
+        <v>45.792</v>
       </c>
       <c r="I275">
-        <v>68.694</v>
+        <v>49.198</v>
       </c>
       <c r="J275">
-        <v>3.764</v>
+        <v>3.811</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -10031,31 +10034,31 @@
         <v>12</v>
       </c>
       <c r="B276">
-        <v>3121.875</v>
+        <v>3122.875</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>199.076</v>
+        <v>194.529</v>
       </c>
       <c r="E276">
-        <v>242.273</v>
+        <v>243.245</v>
       </c>
       <c r="F276">
-        <v>2.591</v>
+        <v>2.579</v>
       </c>
       <c r="G276">
-        <v>13.563</v>
+        <v>12.95</v>
       </c>
       <c r="H276">
-        <v>52.444</v>
+        <v>68.363</v>
       </c>
       <c r="I276">
-        <v>53.078</v>
+        <v>71.53</v>
       </c>
       <c r="J276">
-        <v>3.817</v>
+        <v>3.754</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -10063,31 +10066,31 @@
         <v>12</v>
       </c>
       <c r="B277">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>200.575</v>
+        <v>190.145</v>
       </c>
       <c r="E277">
-        <v>242.398</v>
+        <v>242.455</v>
       </c>
       <c r="F277">
-        <v>2.597</v>
+        <v>2.581</v>
       </c>
       <c r="G277">
-        <v>13.482</v>
+        <v>12.607</v>
       </c>
       <c r="H277">
-        <v>37.139</v>
+        <v>84.952</v>
       </c>
       <c r="I277">
-        <v>37.661</v>
+        <v>87.893</v>
       </c>
       <c r="J277">
-        <v>3.862</v>
+        <v>3.652</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -10095,31 +10098,31 @@
         <v>12</v>
       </c>
       <c r="B278">
-        <v>3122.75</v>
+        <v>3124.75</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>199.617</v>
+        <v>220.514</v>
       </c>
       <c r="E278">
-        <v>244.583</v>
+        <v>243.152</v>
       </c>
       <c r="F278">
-        <v>2.581</v>
+        <v>2.558</v>
       </c>
       <c r="G278">
-        <v>13.715</v>
+        <v>13.977</v>
       </c>
       <c r="H278">
-        <v>45.792</v>
+        <v>33.637</v>
       </c>
       <c r="I278">
-        <v>49.198</v>
+        <v>35.554</v>
       </c>
       <c r="J278">
-        <v>3.811</v>
+        <v>4.379</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -10127,31 +10130,31 @@
         <v>12</v>
       </c>
       <c r="B279">
-        <v>3122.875</v>
+        <v>3124.875</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>194.529</v>
+        <v>209.618</v>
       </c>
       <c r="E279">
-        <v>243.245</v>
+        <v>241.784</v>
       </c>
       <c r="F279">
-        <v>2.579</v>
+        <v>2.554</v>
       </c>
       <c r="G279">
-        <v>12.95</v>
+        <v>13.058</v>
       </c>
       <c r="H279">
-        <v>68.363</v>
+        <v>61.783</v>
       </c>
       <c r="I279">
-        <v>71.53</v>
+        <v>62.992</v>
       </c>
       <c r="J279">
-        <v>3.754</v>
+        <v>4.282</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -10159,31 +10162,31 @@
         <v>12</v>
       </c>
       <c r="B280">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>190.145</v>
+        <v>200.075</v>
       </c>
       <c r="E280">
-        <v>242.455</v>
+        <v>241.279</v>
       </c>
       <c r="F280">
-        <v>2.581</v>
+        <v>2.553</v>
       </c>
       <c r="G280">
-        <v>12.607</v>
+        <v>12.377</v>
       </c>
       <c r="H280">
-        <v>84.952</v>
+        <v>88.287</v>
       </c>
       <c r="I280">
-        <v>87.893</v>
+        <v>88.423</v>
       </c>
       <c r="J280">
-        <v>3.652</v>
+        <v>4.069</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -10191,31 +10194,31 @@
         <v>12</v>
       </c>
       <c r="B281">
-        <v>3124.75</v>
+        <v>3125.75</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>220.514</v>
+        <v>195.766</v>
       </c>
       <c r="E281">
-        <v>243.152</v>
+        <v>240.133</v>
       </c>
       <c r="F281">
-        <v>2.558</v>
+        <v>2.59</v>
       </c>
       <c r="G281">
-        <v>13.977</v>
+        <v>12.956</v>
       </c>
       <c r="H281">
-        <v>33.637</v>
+        <v>34.808</v>
       </c>
       <c r="I281">
-        <v>35.554</v>
+        <v>33.673</v>
       </c>
       <c r="J281">
-        <v>4.379</v>
+        <v>3.195</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -10223,31 +10226,31 @@
         <v>12</v>
       </c>
       <c r="B282">
-        <v>3124.875</v>
+        <v>3125.875</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>209.618</v>
+        <v>198.144</v>
       </c>
       <c r="E282">
-        <v>241.784</v>
+        <v>241.758</v>
       </c>
       <c r="F282">
-        <v>2.554</v>
+        <v>2.586</v>
       </c>
       <c r="G282">
-        <v>13.058</v>
+        <v>12.266</v>
       </c>
       <c r="H282">
-        <v>61.783</v>
+        <v>23.094</v>
       </c>
       <c r="I282">
-        <v>62.992</v>
+        <v>22.808</v>
       </c>
       <c r="J282">
-        <v>4.282</v>
+        <v>3.131</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -10255,31 +10258,31 @@
         <v>12</v>
       </c>
       <c r="B283">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>200.075</v>
+        <v>200.502</v>
       </c>
       <c r="E283">
-        <v>241.279</v>
+        <v>243.396</v>
       </c>
       <c r="F283">
-        <v>2.553</v>
+        <v>2.577</v>
       </c>
       <c r="G283">
-        <v>12.377</v>
+        <v>11.892</v>
       </c>
       <c r="H283">
-        <v>88.287</v>
+        <v>16.766</v>
       </c>
       <c r="I283">
-        <v>88.423</v>
+        <v>17.519</v>
       </c>
       <c r="J283">
-        <v>4.069</v>
+        <v>3.082</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -10287,31 +10290,31 @@
         <v>12</v>
       </c>
       <c r="B284">
-        <v>3125.75</v>
+        <v>3126.75</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>195.766</v>
+        <v>210.597</v>
       </c>
       <c r="E284">
-        <v>240.133</v>
+        <v>241.373</v>
       </c>
       <c r="F284">
-        <v>2.59</v>
+        <v>2.554</v>
       </c>
       <c r="G284">
-        <v>12.956</v>
+        <v>12.549</v>
       </c>
       <c r="H284">
-        <v>34.808</v>
+        <v>136.532</v>
       </c>
       <c r="I284">
-        <v>33.673</v>
+        <v>135.525</v>
       </c>
       <c r="J284">
-        <v>3.195</v>
+        <v>2.957</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -10319,31 +10322,31 @@
         <v>12</v>
       </c>
       <c r="B285">
-        <v>3125.875</v>
+        <v>3126.875</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>198.144</v>
+        <v>213.353</v>
       </c>
       <c r="E285">
-        <v>241.758</v>
+        <v>240.899</v>
       </c>
       <c r="F285">
-        <v>2.586</v>
+        <v>2.562</v>
       </c>
       <c r="G285">
-        <v>12.266</v>
+        <v>12.874</v>
       </c>
       <c r="H285">
-        <v>23.094</v>
+        <v>130.003</v>
       </c>
       <c r="I285">
-        <v>22.808</v>
+        <v>128.972</v>
       </c>
       <c r="J285">
-        <v>3.131</v>
+        <v>3.083</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -10351,31 +10354,31 @@
         <v>12</v>
       </c>
       <c r="B286">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>200.502</v>
+        <v>215.856</v>
       </c>
       <c r="E286">
-        <v>243.396</v>
+        <v>241.125</v>
       </c>
       <c r="F286">
-        <v>2.577</v>
+        <v>2.565</v>
       </c>
       <c r="G286">
-        <v>11.892</v>
+        <v>13.187</v>
       </c>
       <c r="H286">
-        <v>16.766</v>
+        <v>121.324</v>
       </c>
       <c r="I286">
-        <v>17.519</v>
+        <v>120.552</v>
       </c>
       <c r="J286">
-        <v>3.082</v>
+        <v>3.238</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -10383,31 +10386,31 @@
         <v>12</v>
       </c>
       <c r="B287">
-        <v>3126.75</v>
+        <v>3127.75</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>210.597</v>
+        <v>220.436</v>
       </c>
       <c r="E287">
-        <v>241.373</v>
+        <v>248.18</v>
       </c>
       <c r="F287">
-        <v>2.554</v>
+        <v>2.541</v>
       </c>
       <c r="G287">
-        <v>12.549</v>
+        <v>12.897</v>
       </c>
       <c r="H287">
-        <v>136.532</v>
+        <v>100.257</v>
       </c>
       <c r="I287">
-        <v>135.525</v>
+        <v>101.324</v>
       </c>
       <c r="J287">
-        <v>2.957</v>
+        <v>3.179</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -10415,31 +10418,31 @@
         <v>12</v>
       </c>
       <c r="B288">
-        <v>3126.875</v>
+        <v>3127.875</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>213.353</v>
+        <v>219.861</v>
       </c>
       <c r="E288">
-        <v>240.899</v>
+        <v>247.951</v>
       </c>
       <c r="F288">
-        <v>2.562</v>
+        <v>2.535</v>
       </c>
       <c r="G288">
-        <v>12.874</v>
+        <v>12.769</v>
       </c>
       <c r="H288">
-        <v>130.003</v>
+        <v>105.058</v>
       </c>
       <c r="I288">
-        <v>128.972</v>
+        <v>104.294</v>
       </c>
       <c r="J288">
-        <v>3.083</v>
+        <v>3.155</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -10447,31 +10450,31 @@
         <v>12</v>
       </c>
       <c r="B289">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>215.856</v>
+        <v>217.983</v>
       </c>
       <c r="E289">
-        <v>241.125</v>
+        <v>247.286</v>
       </c>
       <c r="F289">
-        <v>2.565</v>
+        <v>2.531</v>
       </c>
       <c r="G289">
-        <v>13.187</v>
+        <v>12.637</v>
       </c>
       <c r="H289">
-        <v>121.324</v>
+        <v>103.454</v>
       </c>
       <c r="I289">
-        <v>120.552</v>
+        <v>99.893</v>
       </c>
       <c r="J289">
-        <v>3.238</v>
+        <v>3.161</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -10479,31 +10482,31 @@
         <v>12</v>
       </c>
       <c r="B290">
-        <v>3127.75</v>
+        <v>3128.75</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>220.436</v>
+        <v>208.031</v>
       </c>
       <c r="E290">
-        <v>248.18</v>
+        <v>248.064</v>
       </c>
       <c r="F290">
-        <v>2.541</v>
+        <v>2.554</v>
       </c>
       <c r="G290">
-        <v>12.897</v>
+        <v>13.1</v>
       </c>
       <c r="H290">
-        <v>100.257</v>
+        <v>18.34</v>
       </c>
       <c r="I290">
-        <v>101.324</v>
+        <v>19.086</v>
       </c>
       <c r="J290">
-        <v>3.179</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -10511,31 +10514,31 @@
         <v>12</v>
       </c>
       <c r="B291">
-        <v>3127.875</v>
+        <v>3128.875</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>219.861</v>
+        <v>208.617</v>
       </c>
       <c r="E291">
-        <v>247.951</v>
+        <v>248.603</v>
       </c>
       <c r="F291">
-        <v>2.535</v>
+        <v>2.547</v>
       </c>
       <c r="G291">
-        <v>12.769</v>
+        <v>13.139</v>
       </c>
       <c r="H291">
-        <v>105.058</v>
+        <v>24.706</v>
       </c>
       <c r="I291">
-        <v>104.294</v>
+        <v>24.839</v>
       </c>
       <c r="J291">
-        <v>3.155</v>
+        <v>3.141</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -10543,31 +10546,31 @@
         <v>12</v>
       </c>
       <c r="B292">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>217.983</v>
+        <v>211.984</v>
       </c>
       <c r="E292">
-        <v>247.286</v>
+        <v>248.504</v>
       </c>
       <c r="F292">
-        <v>2.531</v>
+        <v>2.54</v>
       </c>
       <c r="G292">
-        <v>12.637</v>
+        <v>13.074</v>
       </c>
       <c r="H292">
-        <v>103.454</v>
+        <v>29.053</v>
       </c>
       <c r="I292">
-        <v>99.893</v>
+        <v>28.587</v>
       </c>
       <c r="J292">
-        <v>3.161</v>
+        <v>3.151</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -10575,31 +10578,31 @@
         <v>12</v>
       </c>
       <c r="B293">
-        <v>3128.75</v>
+        <v>3129.75</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>208.031</v>
+        <v>206.528</v>
       </c>
       <c r="E293">
-        <v>248.064</v>
+        <v>247.599</v>
       </c>
       <c r="F293">
-        <v>2.554</v>
+        <v>2.548</v>
       </c>
       <c r="G293">
-        <v>13.1</v>
+        <v>12.015</v>
       </c>
       <c r="H293">
-        <v>18.34</v>
+        <v>21.696</v>
       </c>
       <c r="I293">
-        <v>19.086</v>
+        <v>23.799</v>
       </c>
       <c r="J293">
-        <v>3.15</v>
+        <v>2.671</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -10607,31 +10610,31 @@
         <v>12</v>
       </c>
       <c r="B294">
-        <v>3128.875</v>
+        <v>3129.875</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>208.617</v>
+        <v>205.527</v>
       </c>
       <c r="E294">
-        <v>248.603</v>
+        <v>247.745</v>
       </c>
       <c r="F294">
-        <v>2.547</v>
+        <v>2.541</v>
       </c>
       <c r="G294">
-        <v>13.139</v>
+        <v>11.904</v>
       </c>
       <c r="H294">
-        <v>24.706</v>
+        <v>37.006</v>
       </c>
       <c r="I294">
-        <v>24.839</v>
+        <v>39.705</v>
       </c>
       <c r="J294">
-        <v>3.141</v>
+        <v>2.444</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -10639,31 +10642,31 @@
         <v>12</v>
       </c>
       <c r="B295">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>211.984</v>
+        <v>206.843</v>
       </c>
       <c r="E295">
-        <v>248.504</v>
+        <v>247.091</v>
       </c>
       <c r="F295">
-        <v>2.54</v>
+        <v>2.535</v>
       </c>
       <c r="G295">
-        <v>13.074</v>
+        <v>11.731</v>
       </c>
       <c r="H295">
-        <v>29.053</v>
+        <v>71.285</v>
       </c>
       <c r="I295">
-        <v>28.587</v>
+        <v>73.585</v>
       </c>
       <c r="J295">
-        <v>3.151</v>
+        <v>2.233</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -10671,31 +10674,31 @@
         <v>12</v>
       </c>
       <c r="B296">
-        <v>3129.75</v>
+        <v>3130.75</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>206.528</v>
+        <v>209.244</v>
       </c>
       <c r="E296">
-        <v>247.599</v>
+        <v>248.962</v>
       </c>
       <c r="F296">
-        <v>2.548</v>
+        <v>2.554</v>
       </c>
       <c r="G296">
-        <v>12.015</v>
+        <v>12.227</v>
       </c>
       <c r="H296">
-        <v>21.696</v>
+        <v>86.728</v>
       </c>
       <c r="I296">
-        <v>23.799</v>
+        <v>89.376</v>
       </c>
       <c r="J296">
-        <v>2.671</v>
+        <v>2.098</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -10703,31 +10706,31 @@
         <v>12</v>
       </c>
       <c r="B297">
-        <v>3129.875</v>
+        <v>3130.875</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>205.527</v>
+        <v>212.2</v>
       </c>
       <c r="E297">
-        <v>247.745</v>
+        <v>249.2</v>
       </c>
       <c r="F297">
-        <v>2.541</v>
+        <v>2.542</v>
       </c>
       <c r="G297">
-        <v>11.904</v>
+        <v>12.254</v>
       </c>
       <c r="H297">
-        <v>37.006</v>
+        <v>80.249</v>
       </c>
       <c r="I297">
-        <v>39.705</v>
+        <v>83.804</v>
       </c>
       <c r="J297">
-        <v>2.444</v>
+        <v>2.229</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -10735,31 +10738,31 @@
         <v>12</v>
       </c>
       <c r="B298">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>206.843</v>
+        <v>214.879</v>
       </c>
       <c r="E298">
-        <v>247.091</v>
+        <v>248.329</v>
       </c>
       <c r="F298">
-        <v>2.535</v>
+        <v>2.533</v>
       </c>
       <c r="G298">
-        <v>11.731</v>
+        <v>12.17</v>
       </c>
       <c r="H298">
-        <v>71.285</v>
+        <v>82.426</v>
       </c>
       <c r="I298">
-        <v>73.585</v>
+        <v>86.848</v>
       </c>
       <c r="J298">
-        <v>2.233</v>
+        <v>2.394</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -10767,31 +10770,31 @@
         <v>12</v>
       </c>
       <c r="B299">
-        <v>3130.75</v>
+        <v>3131.75</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299">
-        <v>209.244</v>
+        <v>219.961</v>
       </c>
       <c r="E299">
-        <v>248.962</v>
+        <v>245.635</v>
       </c>
       <c r="F299">
-        <v>2.554</v>
+        <v>2.561</v>
       </c>
       <c r="G299">
-        <v>12.227</v>
+        <v>12.059</v>
       </c>
       <c r="H299">
-        <v>86.728</v>
+        <v>92.576</v>
       </c>
       <c r="I299">
-        <v>89.376</v>
+        <v>94.686</v>
       </c>
       <c r="J299">
-        <v>2.098</v>
+        <v>2.928</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -10799,31 +10802,31 @@
         <v>12</v>
       </c>
       <c r="B300">
-        <v>3130.875</v>
+        <v>3131.875</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>212.2</v>
+        <v>235.09</v>
       </c>
       <c r="E300">
-        <v>249.2</v>
+        <v>245.432</v>
       </c>
       <c r="F300">
-        <v>2.542</v>
+        <v>2.565</v>
       </c>
       <c r="G300">
-        <v>12.254</v>
+        <v>12.672</v>
       </c>
       <c r="H300">
-        <v>80.249</v>
+        <v>80.353</v>
       </c>
       <c r="I300">
-        <v>83.804</v>
+        <v>80.979</v>
       </c>
       <c r="J300">
-        <v>2.229</v>
+        <v>2.834</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -10831,31 +10834,31 @@
         <v>12</v>
       </c>
       <c r="B301">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>214.879</v>
+        <v>253.443</v>
       </c>
       <c r="E301">
-        <v>248.329</v>
+        <v>246.053</v>
       </c>
       <c r="F301">
-        <v>2.533</v>
+        <v>2.567</v>
       </c>
       <c r="G301">
-        <v>12.17</v>
+        <v>13.445</v>
       </c>
       <c r="H301">
-        <v>82.426</v>
+        <v>62.62</v>
       </c>
       <c r="I301">
-        <v>86.848</v>
+        <v>62.417</v>
       </c>
       <c r="J301">
-        <v>2.394</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -10863,31 +10866,31 @@
         <v>12</v>
       </c>
       <c r="B302">
-        <v>3131.75</v>
+        <v>3132.75</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>219.961</v>
+        <v>241.844</v>
       </c>
       <c r="E302">
-        <v>245.635</v>
+        <v>253.556</v>
       </c>
       <c r="F302">
-        <v>2.561</v>
+        <v>2.557</v>
       </c>
       <c r="G302">
-        <v>12.059</v>
+        <v>12.637</v>
       </c>
       <c r="H302">
-        <v>92.576</v>
+        <v>40.905</v>
       </c>
       <c r="I302">
-        <v>94.686</v>
+        <v>43.503</v>
       </c>
       <c r="J302">
-        <v>2.928</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -10895,31 +10898,31 @@
         <v>12</v>
       </c>
       <c r="B303">
-        <v>3131.875</v>
+        <v>3132.875</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>235.09</v>
+        <v>236.655</v>
       </c>
       <c r="E303">
-        <v>245.432</v>
+        <v>252.149</v>
       </c>
       <c r="F303">
-        <v>2.565</v>
+        <v>2.549</v>
       </c>
       <c r="G303">
-        <v>12.672</v>
+        <v>12.715</v>
       </c>
       <c r="H303">
-        <v>80.353</v>
+        <v>47.521</v>
       </c>
       <c r="I303">
-        <v>80.979</v>
+        <v>49.899</v>
       </c>
       <c r="J303">
-        <v>2.834</v>
+        <v>2.572</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -10927,31 +10930,31 @@
         <v>12</v>
       </c>
       <c r="B304">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>253.443</v>
+        <v>238.573</v>
       </c>
       <c r="E304">
-        <v>246.053</v>
+        <v>251.41</v>
       </c>
       <c r="F304">
-        <v>2.567</v>
+        <v>2.541</v>
       </c>
       <c r="G304">
-        <v>13.445</v>
+        <v>13.08</v>
       </c>
       <c r="H304">
-        <v>62.62</v>
+        <v>51.14</v>
       </c>
       <c r="I304">
-        <v>62.417</v>
+        <v>53.062</v>
       </c>
       <c r="J304">
-        <v>2.85</v>
+        <v>2.676</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -10959,31 +10962,31 @@
         <v>12</v>
       </c>
       <c r="B305">
-        <v>3132.75</v>
+        <v>3133.75</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>241.844</v>
+        <v>233.777</v>
       </c>
       <c r="E305">
-        <v>253.556</v>
+        <v>252.517</v>
       </c>
       <c r="F305">
-        <v>2.557</v>
+        <v>2.524</v>
       </c>
       <c r="G305">
-        <v>12.637</v>
+        <v>12.706</v>
       </c>
       <c r="H305">
-        <v>40.905</v>
+        <v>39.466</v>
       </c>
       <c r="I305">
-        <v>43.503</v>
+        <v>40.769</v>
       </c>
       <c r="J305">
-        <v>2.53</v>
+        <v>2.507</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -10991,31 +10994,31 @@
         <v>12</v>
       </c>
       <c r="B306">
-        <v>3132.875</v>
+        <v>3133.875</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306">
-        <v>236.655</v>
+        <v>232.485</v>
       </c>
       <c r="E306">
-        <v>252.149</v>
+        <v>252.896</v>
       </c>
       <c r="F306">
-        <v>2.549</v>
+        <v>2.526</v>
       </c>
       <c r="G306">
-        <v>12.715</v>
+        <v>12.44</v>
       </c>
       <c r="H306">
-        <v>47.521</v>
+        <v>35.869</v>
       </c>
       <c r="I306">
-        <v>49.899</v>
+        <v>36.619</v>
       </c>
       <c r="J306">
-        <v>2.572</v>
+        <v>2.465</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -11023,31 +11026,31 @@
         <v>12</v>
       </c>
       <c r="B307">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>238.573</v>
+        <v>232.517</v>
       </c>
       <c r="E307">
-        <v>251.41</v>
+        <v>253.473</v>
       </c>
       <c r="F307">
-        <v>2.541</v>
+        <v>2.528</v>
       </c>
       <c r="G307">
-        <v>13.08</v>
+        <v>12.481</v>
       </c>
       <c r="H307">
-        <v>51.14</v>
+        <v>29.466</v>
       </c>
       <c r="I307">
-        <v>53.062</v>
+        <v>30.011</v>
       </c>
       <c r="J307">
-        <v>2.676</v>
+        <v>2.447</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -11055,31 +11058,31 @@
         <v>12</v>
       </c>
       <c r="B308">
-        <v>3133.75</v>
+        <v>3135.75</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
       <c r="D308">
-        <v>233.777</v>
+        <v>276.671</v>
       </c>
       <c r="E308">
-        <v>252.517</v>
+        <v>248.399</v>
       </c>
       <c r="F308">
-        <v>2.524</v>
+        <v>2.54</v>
       </c>
       <c r="G308">
-        <v>12.706</v>
+        <v>12.583</v>
       </c>
       <c r="H308">
-        <v>39.466</v>
+        <v>20.761</v>
       </c>
       <c r="I308">
-        <v>40.769</v>
+        <v>21.939</v>
       </c>
       <c r="J308">
-        <v>2.507</v>
+        <v>2.869</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -11087,31 +11090,31 @@
         <v>12</v>
       </c>
       <c r="B309">
-        <v>3133.875</v>
+        <v>3135.875</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>232.485</v>
+        <v>272.344</v>
       </c>
       <c r="E309">
-        <v>252.896</v>
+        <v>246.653</v>
       </c>
       <c r="F309">
-        <v>2.526</v>
+        <v>2.532</v>
       </c>
       <c r="G309">
-        <v>12.44</v>
+        <v>12.587</v>
       </c>
       <c r="H309">
-        <v>35.869</v>
+        <v>19.319</v>
       </c>
       <c r="I309">
-        <v>36.619</v>
+        <v>20.746</v>
       </c>
       <c r="J309">
-        <v>2.465</v>
+        <v>2.768</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -11119,31 +11122,31 @@
         <v>12</v>
       </c>
       <c r="B310">
-        <v>3134</v>
+        <v>3136</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310">
-        <v>232.517</v>
+        <v>266.95</v>
       </c>
       <c r="E310">
-        <v>253.473</v>
+        <v>244.615</v>
       </c>
       <c r="F310">
-        <v>2.528</v>
+        <v>2.522</v>
       </c>
       <c r="G310">
-        <v>12.481</v>
+        <v>12.574</v>
       </c>
       <c r="H310">
-        <v>29.466</v>
+        <v>20.238</v>
       </c>
       <c r="I310">
-        <v>30.011</v>
+        <v>21.941</v>
       </c>
       <c r="J310">
-        <v>2.447</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -11151,31 +11154,31 @@
         <v>12</v>
       </c>
       <c r="B311">
-        <v>3135.75</v>
+        <v>3136.75</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>276.671</v>
+        <v>274.743</v>
       </c>
       <c r="E311">
-        <v>248.399</v>
+        <v>242.686</v>
       </c>
       <c r="F311">
-        <v>2.54</v>
+        <v>2.496</v>
       </c>
       <c r="G311">
-        <v>12.583</v>
+        <v>10.65</v>
       </c>
       <c r="H311">
-        <v>20.761</v>
+        <v>123.96</v>
       </c>
       <c r="I311">
-        <v>21.939</v>
+        <v>121.977</v>
       </c>
       <c r="J311">
-        <v>2.869</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -11183,31 +11186,31 @@
         <v>12</v>
       </c>
       <c r="B312">
-        <v>3135.875</v>
+        <v>3136.875</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312">
-        <v>272.344</v>
+        <v>293.19</v>
       </c>
       <c r="E312">
-        <v>246.653</v>
+        <v>246.378</v>
       </c>
       <c r="F312">
-        <v>2.532</v>
+        <v>2.507</v>
       </c>
       <c r="G312">
-        <v>12.587</v>
+        <v>10.741</v>
       </c>
       <c r="H312">
-        <v>19.319</v>
+        <v>99.418</v>
       </c>
       <c r="I312">
-        <v>20.746</v>
+        <v>94.587</v>
       </c>
       <c r="J312">
-        <v>2.768</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -11215,31 +11218,31 @@
         <v>12</v>
       </c>
       <c r="B313">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>266.95</v>
+        <v>322.456</v>
       </c>
       <c r="E313">
-        <v>244.615</v>
+        <v>250.973</v>
       </c>
       <c r="F313">
         <v>2.522</v>
       </c>
       <c r="G313">
-        <v>12.574</v>
+        <v>11.043</v>
       </c>
       <c r="H313">
-        <v>20.238</v>
+        <v>58.178</v>
       </c>
       <c r="I313">
-        <v>21.941</v>
+        <v>53.709</v>
       </c>
       <c r="J313">
-        <v>2.71</v>
+        <v>2.676</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -11247,31 +11250,31 @@
         <v>12</v>
       </c>
       <c r="B314">
-        <v>3136.75</v>
+        <v>3138.25</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314">
-        <v>274.743</v>
+        <v>404.745</v>
       </c>
       <c r="E314">
-        <v>242.686</v>
+        <v>250.672</v>
       </c>
       <c r="F314">
-        <v>2.496</v>
+        <v>2.455</v>
       </c>
       <c r="G314">
-        <v>10.65</v>
+        <v>11.309</v>
       </c>
       <c r="H314">
-        <v>123.96</v>
+        <v>19.634</v>
       </c>
       <c r="I314">
-        <v>121.977</v>
+        <v>20.41</v>
       </c>
       <c r="J314">
-        <v>2.65</v>
+        <v>4.274</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -11279,31 +11282,31 @@
         <v>12</v>
       </c>
       <c r="B315">
-        <v>3136.875</v>
+        <v>3138.375</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>293.19</v>
+        <v>436.878</v>
       </c>
       <c r="E315">
-        <v>246.378</v>
+        <v>251.91</v>
       </c>
       <c r="F315">
-        <v>2.507</v>
+        <v>2.454</v>
       </c>
       <c r="G315">
-        <v>10.741</v>
+        <v>11.41</v>
       </c>
       <c r="H315">
-        <v>99.418</v>
+        <v>19.074</v>
       </c>
       <c r="I315">
-        <v>94.587</v>
+        <v>20.166</v>
       </c>
       <c r="J315">
-        <v>2.65</v>
+        <v>4.581</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -11311,31 +11314,31 @@
         <v>12</v>
       </c>
       <c r="B316">
-        <v>3137</v>
+        <v>3138.5</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316">
-        <v>322.456</v>
+        <v>457.92</v>
       </c>
       <c r="E316">
-        <v>250.973</v>
+        <v>253.352</v>
       </c>
       <c r="F316">
-        <v>2.522</v>
+        <v>2.457</v>
       </c>
       <c r="G316">
-        <v>11.043</v>
+        <v>11.954</v>
       </c>
       <c r="H316">
-        <v>58.178</v>
+        <v>26.341</v>
       </c>
       <c r="I316">
-        <v>53.709</v>
+        <v>27.864</v>
       </c>
       <c r="J316">
-        <v>2.676</v>
+        <v>4.517</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -11343,31 +11346,31 @@
         <v>12</v>
       </c>
       <c r="B317">
-        <v>3138.25</v>
+        <v>3138.75</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317">
-        <v>404.745</v>
+        <v>394.604</v>
       </c>
       <c r="E317">
-        <v>250.672</v>
+        <v>254.539</v>
       </c>
       <c r="F317">
-        <v>2.455</v>
+        <v>2.486</v>
       </c>
       <c r="G317">
-        <v>11.309</v>
+        <v>13.165</v>
       </c>
       <c r="H317">
-        <v>19.634</v>
+        <v>108.848</v>
       </c>
       <c r="I317">
-        <v>20.41</v>
+        <v>107.758</v>
       </c>
       <c r="J317">
-        <v>4.274</v>
+        <v>3.709</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -11375,31 +11378,31 @@
         <v>12</v>
       </c>
       <c r="B318">
-        <v>3138.375</v>
+        <v>3138.875</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318">
-        <v>436.878</v>
+        <v>308.532</v>
       </c>
       <c r="E318">
-        <v>251.91</v>
+        <v>252.159</v>
       </c>
       <c r="F318">
-        <v>2.454</v>
+        <v>2.516</v>
       </c>
       <c r="G318">
-        <v>11.41</v>
+        <v>12.926</v>
       </c>
       <c r="H318">
-        <v>19.074</v>
+        <v>163.14</v>
       </c>
       <c r="I318">
-        <v>20.166</v>
+        <v>158.748</v>
       </c>
       <c r="J318">
-        <v>4.581</v>
+        <v>3.145</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -11407,31 +11410,31 @@
         <v>12</v>
       </c>
       <c r="B319">
-        <v>3138.5</v>
+        <v>3139</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319">
-        <v>457.92</v>
+        <v>226.31</v>
       </c>
       <c r="E319">
-        <v>253.352</v>
+        <v>247.015</v>
       </c>
       <c r="F319">
-        <v>2.457</v>
+        <v>2.557</v>
       </c>
       <c r="G319">
-        <v>11.954</v>
+        <v>11.827</v>
       </c>
       <c r="H319">
-        <v>26.341</v>
+        <v>184.684</v>
       </c>
       <c r="I319">
-        <v>27.864</v>
+        <v>176.784</v>
       </c>
       <c r="J319">
-        <v>4.517</v>
+        <v>2.711</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -11439,31 +11442,31 @@
         <v>12</v>
       </c>
       <c r="B320">
-        <v>3138.75</v>
+        <v>3139.75</v>
       </c>
       <c r="C320">
         <v>1</v>
       </c>
       <c r="D320">
-        <v>394.604</v>
+        <v>244.393</v>
       </c>
       <c r="E320">
-        <v>254.539</v>
+        <v>243.332</v>
       </c>
       <c r="F320">
-        <v>2.486</v>
+        <v>2.543</v>
       </c>
       <c r="G320">
-        <v>13.165</v>
+        <v>9.72</v>
       </c>
       <c r="H320">
-        <v>108.848</v>
+        <v>16.313</v>
       </c>
       <c r="I320">
-        <v>107.758</v>
+        <v>16.957</v>
       </c>
       <c r="J320">
-        <v>3.709</v>
+        <v>2.445</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -11471,31 +11474,31 @@
         <v>12</v>
       </c>
       <c r="B321">
-        <v>3138.875</v>
+        <v>3139.875</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321">
-        <v>308.532</v>
+        <v>232.701</v>
       </c>
       <c r="E321">
-        <v>252.159</v>
+        <v>247.44</v>
       </c>
       <c r="F321">
         <v>2.516</v>
       </c>
       <c r="G321">
-        <v>12.926</v>
+        <v>10.917</v>
       </c>
       <c r="H321">
-        <v>163.14</v>
+        <v>20.606</v>
       </c>
       <c r="I321">
-        <v>158.748</v>
+        <v>20.728</v>
       </c>
       <c r="J321">
-        <v>3.145</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -11503,31 +11506,31 @@
         <v>12</v>
       </c>
       <c r="B322">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="C322">
         <v>1</v>
       </c>
       <c r="D322">
-        <v>226.31</v>
+        <v>225.779</v>
       </c>
       <c r="E322">
-        <v>247.015</v>
+        <v>249.809</v>
       </c>
       <c r="F322">
-        <v>2.557</v>
+        <v>2.503</v>
       </c>
       <c r="G322">
-        <v>11.827</v>
+        <v>11.382</v>
       </c>
       <c r="H322">
-        <v>184.684</v>
+        <v>21.876</v>
       </c>
       <c r="I322">
-        <v>176.784</v>
+        <v>21.387</v>
       </c>
       <c r="J322">
-        <v>2.711</v>
+        <v>2.241</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -11535,31 +11538,31 @@
         <v>12</v>
       </c>
       <c r="B323">
-        <v>3139.75</v>
+        <v>3140.75</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323">
-        <v>244.393</v>
+        <v>217.185</v>
       </c>
       <c r="E323">
-        <v>243.332</v>
+        <v>241.879</v>
       </c>
       <c r="F323">
-        <v>2.543</v>
+        <v>2.52</v>
       </c>
       <c r="G323">
-        <v>9.72</v>
+        <v>10.56</v>
       </c>
       <c r="H323">
-        <v>16.313</v>
+        <v>37.996</v>
       </c>
       <c r="I323">
-        <v>16.957</v>
+        <v>40.371</v>
       </c>
       <c r="J323">
-        <v>2.445</v>
+        <v>1.395</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -11567,31 +11570,31 @@
         <v>12</v>
       </c>
       <c r="B324">
-        <v>3139.875</v>
+        <v>3140.875</v>
       </c>
       <c r="C324">
         <v>1</v>
       </c>
       <c r="D324">
-        <v>232.701</v>
+        <v>221.863</v>
       </c>
       <c r="E324">
-        <v>247.44</v>
+        <v>239.404</v>
       </c>
       <c r="F324">
-        <v>2.516</v>
+        <v>2.506</v>
       </c>
       <c r="G324">
-        <v>10.917</v>
+        <v>10.544</v>
       </c>
       <c r="H324">
-        <v>20.606</v>
+        <v>55.825</v>
       </c>
       <c r="I324">
-        <v>20.728</v>
+        <v>57.866</v>
       </c>
       <c r="J324">
-        <v>2.34</v>
+        <v>1.445</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -11599,31 +11602,31 @@
         <v>12</v>
       </c>
       <c r="B325">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="C325">
         <v>1</v>
       </c>
       <c r="D325">
-        <v>225.779</v>
+        <v>225.801</v>
       </c>
       <c r="E325">
-        <v>249.809</v>
+        <v>238.477</v>
       </c>
       <c r="F325">
-        <v>2.503</v>
+        <v>2.495</v>
       </c>
       <c r="G325">
-        <v>11.382</v>
+        <v>10.508</v>
       </c>
       <c r="H325">
-        <v>21.876</v>
+        <v>65.907</v>
       </c>
       <c r="I325">
-        <v>21.387</v>
+        <v>67.328</v>
       </c>
       <c r="J325">
-        <v>2.241</v>
+        <v>1.555</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -11631,31 +11634,31 @@
         <v>12</v>
       </c>
       <c r="B326">
-        <v>3140.75</v>
+        <v>3141.75</v>
       </c>
       <c r="C326">
         <v>1</v>
       </c>
       <c r="D326">
-        <v>217.185</v>
+        <v>194.118</v>
       </c>
       <c r="E326">
-        <v>241.879</v>
+        <v>237.229</v>
       </c>
       <c r="F326">
-        <v>2.52</v>
+        <v>2.49</v>
       </c>
       <c r="G326">
-        <v>10.56</v>
+        <v>9.914</v>
       </c>
       <c r="H326">
-        <v>37.996</v>
+        <v>92.236</v>
       </c>
       <c r="I326">
-        <v>40.371</v>
+        <v>92.513</v>
       </c>
       <c r="J326">
-        <v>1.395</v>
+        <v>2.823</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -11663,31 +11666,31 @@
         <v>12</v>
       </c>
       <c r="B327">
-        <v>3140.875</v>
+        <v>3141.875</v>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
       <c r="D327">
-        <v>221.863</v>
+        <v>184.389</v>
       </c>
       <c r="E327">
-        <v>239.404</v>
+        <v>236.011</v>
       </c>
       <c r="F327">
-        <v>2.506</v>
+        <v>2.492</v>
       </c>
       <c r="G327">
-        <v>10.544</v>
+        <v>9.918</v>
       </c>
       <c r="H327">
-        <v>55.825</v>
+        <v>101.744</v>
       </c>
       <c r="I327">
-        <v>57.866</v>
+        <v>101.421</v>
       </c>
       <c r="J327">
-        <v>1.445</v>
+        <v>2.948</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -11695,127 +11698,127 @@
         <v>12</v>
       </c>
       <c r="B328">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
       <c r="D328">
-        <v>225.801</v>
+        <v>176.891</v>
       </c>
       <c r="E328">
-        <v>238.477</v>
+        <v>235.113</v>
       </c>
       <c r="F328">
-        <v>2.495</v>
+        <v>2.497</v>
       </c>
       <c r="G328">
-        <v>10.508</v>
+        <v>9.992</v>
       </c>
       <c r="H328">
-        <v>65.907</v>
+        <v>105.542</v>
       </c>
       <c r="I328">
-        <v>67.328</v>
+        <v>104.112</v>
       </c>
       <c r="J328">
-        <v>1.555</v>
+        <v>3.039</v>
       </c>
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B329">
-        <v>3141.75</v>
+        <v>2867.75</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D329">
-        <v>194.118</v>
+        <v>199.771</v>
       </c>
       <c r="E329">
-        <v>237.229</v>
+        <v>265.331</v>
       </c>
       <c r="F329">
-        <v>2.49</v>
+        <v>2.681</v>
       </c>
       <c r="G329">
-        <v>9.914</v>
+        <v>17.16</v>
       </c>
       <c r="H329">
-        <v>92.236</v>
+        <v>46.044</v>
       </c>
       <c r="I329">
-        <v>92.513</v>
+        <v>42.177</v>
       </c>
       <c r="J329">
-        <v>2.823</v>
+        <v>3.962</v>
       </c>
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B330">
-        <v>3141.875</v>
+        <v>2867.875</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D330">
-        <v>184.389</v>
+        <v>204.394</v>
       </c>
       <c r="E330">
-        <v>236.011</v>
+        <v>268.315</v>
       </c>
       <c r="F330">
-        <v>2.492</v>
+        <v>2.682</v>
       </c>
       <c r="G330">
-        <v>9.918</v>
+        <v>16.989</v>
       </c>
       <c r="H330">
-        <v>101.744</v>
+        <v>44.588</v>
       </c>
       <c r="I330">
-        <v>101.421</v>
+        <v>40.938</v>
       </c>
       <c r="J330">
-        <v>2.948</v>
+        <v>3.889</v>
       </c>
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B331">
-        <v>3142</v>
+        <v>2868</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D331">
-        <v>176.891</v>
+        <v>191.171</v>
       </c>
       <c r="E331">
-        <v>235.113</v>
+        <v>234.797</v>
       </c>
       <c r="F331">
-        <v>2.497</v>
+        <v>2.689</v>
       </c>
       <c r="G331">
-        <v>9.992</v>
+        <v>14.438</v>
       </c>
       <c r="H331">
-        <v>105.542</v>
+        <v>20.881</v>
       </c>
       <c r="I331">
-        <v>104.112</v>
+        <v>18.775</v>
       </c>
       <c r="J331">
-        <v>3.039</v>
+        <v>3.918</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -11823,31 +11826,31 @@
         <v>13</v>
       </c>
       <c r="B332">
-        <v>2867.75</v>
+        <v>2872.625</v>
       </c>
       <c r="C332">
         <v>2</v>
       </c>
       <c r="D332">
-        <v>199.771</v>
+        <v>190.4</v>
       </c>
       <c r="E332">
-        <v>265.331</v>
+        <v>237.467</v>
       </c>
       <c r="F332">
-        <v>2.681</v>
+        <v>2.674</v>
       </c>
       <c r="G332">
-        <v>17.16</v>
+        <v>14.114</v>
       </c>
       <c r="H332">
-        <v>46.044</v>
+        <v>66.149</v>
       </c>
       <c r="I332">
-        <v>42.177</v>
+        <v>58.977</v>
       </c>
       <c r="J332">
-        <v>3.962</v>
+        <v>3.615</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -11855,31 +11858,31 @@
         <v>13</v>
       </c>
       <c r="B333">
-        <v>2867.875</v>
+        <v>2874</v>
       </c>
       <c r="C333">
         <v>2</v>
       </c>
       <c r="D333">
-        <v>204.394</v>
+        <v>168.63</v>
       </c>
       <c r="E333">
-        <v>268.315</v>
+        <v>234.233</v>
       </c>
       <c r="F333">
-        <v>2.682</v>
+        <v>2.671</v>
       </c>
       <c r="G333">
-        <v>16.989</v>
+        <v>14.124</v>
       </c>
       <c r="H333">
-        <v>44.588</v>
+        <v>92.469</v>
       </c>
       <c r="I333">
-        <v>40.938</v>
+        <v>78.433</v>
       </c>
       <c r="J333">
-        <v>3.889</v>
+        <v>3.405</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -11887,31 +11890,31 @@
         <v>13</v>
       </c>
       <c r="B334">
-        <v>2868</v>
+        <v>2876.125</v>
       </c>
       <c r="C334">
         <v>2</v>
       </c>
       <c r="D334">
-        <v>191.171</v>
+        <v>189.772</v>
       </c>
       <c r="E334">
-        <v>234.797</v>
+        <v>239.903</v>
       </c>
       <c r="F334">
-        <v>2.689</v>
+        <v>2.64</v>
       </c>
       <c r="G334">
-        <v>14.438</v>
+        <v>14.259</v>
       </c>
       <c r="H334">
-        <v>20.881</v>
+        <v>64.446</v>
       </c>
       <c r="I334">
-        <v>18.775</v>
+        <v>54.73</v>
       </c>
       <c r="J334">
-        <v>3.918</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -11919,31 +11922,31 @@
         <v>13</v>
       </c>
       <c r="B335">
-        <v>2872.625</v>
+        <v>2876.25</v>
       </c>
       <c r="C335">
         <v>2</v>
       </c>
       <c r="D335">
-        <v>190.4</v>
+        <v>177.188</v>
       </c>
       <c r="E335">
-        <v>237.467</v>
+        <v>241.159</v>
       </c>
       <c r="F335">
-        <v>2.674</v>
+        <v>2.665</v>
       </c>
       <c r="G335">
-        <v>14.114</v>
+        <v>13.588</v>
       </c>
       <c r="H335">
-        <v>66.149</v>
+        <v>67.131</v>
       </c>
       <c r="I335">
-        <v>58.977</v>
+        <v>55.22</v>
       </c>
       <c r="J335">
-        <v>3.615</v>
+        <v>3.775</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -11951,31 +11954,31 @@
         <v>13</v>
       </c>
       <c r="B336">
-        <v>2874</v>
+        <v>2876.375</v>
       </c>
       <c r="C336">
         <v>2</v>
       </c>
       <c r="D336">
-        <v>168.63</v>
+        <v>173.101</v>
       </c>
       <c r="E336">
-        <v>234.233</v>
+        <v>240.67</v>
       </c>
       <c r="F336">
-        <v>2.671</v>
+        <v>2.676</v>
       </c>
       <c r="G336">
-        <v>14.124</v>
+        <v>13.617</v>
       </c>
       <c r="H336">
-        <v>92.469</v>
+        <v>74.078</v>
       </c>
       <c r="I336">
-        <v>78.433</v>
+        <v>60.521</v>
       </c>
       <c r="J336">
-        <v>3.405</v>
+        <v>3.587</v>
       </c>
     </row>
     <row r="337" spans="1:10">
@@ -11983,31 +11986,31 @@
         <v>13</v>
       </c>
       <c r="B337">
-        <v>2876.125</v>
+        <v>2877.75</v>
       </c>
       <c r="C337">
         <v>2</v>
       </c>
       <c r="D337">
-        <v>189.772</v>
+        <v>173.745</v>
       </c>
       <c r="E337">
-        <v>239.903</v>
+        <v>249.275</v>
       </c>
       <c r="F337">
-        <v>2.64</v>
+        <v>2.645</v>
       </c>
       <c r="G337">
-        <v>14.259</v>
+        <v>12.537</v>
       </c>
       <c r="H337">
-        <v>64.446</v>
+        <v>76.633</v>
       </c>
       <c r="I337">
-        <v>54.73</v>
+        <v>61.143</v>
       </c>
       <c r="J337">
-        <v>4.05</v>
+        <v>3.663</v>
       </c>
     </row>
     <row r="338" spans="1:10">
@@ -12015,31 +12018,31 @@
         <v>13</v>
       </c>
       <c r="B338">
-        <v>2876.25</v>
+        <v>2877.875</v>
       </c>
       <c r="C338">
         <v>2</v>
       </c>
       <c r="D338">
-        <v>177.188</v>
+        <v>175.917</v>
       </c>
       <c r="E338">
-        <v>241.159</v>
+        <v>252.655</v>
       </c>
       <c r="F338">
-        <v>2.665</v>
+        <v>2.643</v>
       </c>
       <c r="G338">
-        <v>13.588</v>
+        <v>13.292</v>
       </c>
       <c r="H338">
-        <v>67.131</v>
+        <v>65.06</v>
       </c>
       <c r="I338">
-        <v>55.22</v>
+        <v>51.823</v>
       </c>
       <c r="J338">
-        <v>3.775</v>
+        <v>3.568</v>
       </c>
     </row>
     <row r="339" spans="1:10">
@@ -12047,31 +12050,31 @@
         <v>13</v>
       </c>
       <c r="B339">
-        <v>2876.375</v>
+        <v>2878</v>
       </c>
       <c r="C339">
         <v>2</v>
       </c>
       <c r="D339">
-        <v>173.101</v>
+        <v>188.081</v>
       </c>
       <c r="E339">
-        <v>240.67</v>
+        <v>265.071</v>
       </c>
       <c r="F339">
-        <v>2.676</v>
+        <v>2.638</v>
       </c>
       <c r="G339">
-        <v>13.617</v>
+        <v>17.161</v>
       </c>
       <c r="H339">
-        <v>74.078</v>
+        <v>78.257</v>
       </c>
       <c r="I339">
-        <v>60.521</v>
+        <v>62.128</v>
       </c>
       <c r="J339">
-        <v>3.587</v>
+        <v>3.307</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -12079,31 +12082,31 @@
         <v>13</v>
       </c>
       <c r="B340">
-        <v>2877.75</v>
+        <v>2878.5</v>
       </c>
       <c r="C340">
         <v>2</v>
       </c>
       <c r="D340">
-        <v>173.745</v>
+        <v>189.515</v>
       </c>
       <c r="E340">
-        <v>249.275</v>
+        <v>265.097</v>
       </c>
       <c r="F340">
-        <v>2.645</v>
+        <v>2.633</v>
       </c>
       <c r="G340">
-        <v>12.537</v>
+        <v>17.337</v>
       </c>
       <c r="H340">
-        <v>76.633</v>
+        <v>78.35</v>
       </c>
       <c r="I340">
-        <v>61.143</v>
+        <v>62.31</v>
       </c>
       <c r="J340">
-        <v>3.663</v>
+        <v>3.419</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -12111,31 +12114,31 @@
         <v>13</v>
       </c>
       <c r="B341">
-        <v>2877.875</v>
+        <v>2878.625</v>
       </c>
       <c r="C341">
         <v>2</v>
       </c>
       <c r="D341">
-        <v>175.917</v>
+        <v>190.817</v>
       </c>
       <c r="E341">
-        <v>252.655</v>
+        <v>265.103</v>
       </c>
       <c r="F341">
-        <v>2.643</v>
+        <v>2.628</v>
       </c>
       <c r="G341">
-        <v>13.292</v>
+        <v>17.344</v>
       </c>
       <c r="H341">
-        <v>65.06</v>
+        <v>77.167</v>
       </c>
       <c r="I341">
-        <v>51.823</v>
+        <v>61.464</v>
       </c>
       <c r="J341">
-        <v>3.568</v>
+        <v>3.531</v>
       </c>
     </row>
     <row r="342" spans="1:10">
@@ -12143,31 +12146,31 @@
         <v>13</v>
       </c>
       <c r="B342">
-        <v>2878</v>
+        <v>2878.75</v>
       </c>
       <c r="C342">
         <v>2</v>
       </c>
       <c r="D342">
-        <v>188.081</v>
+        <v>194.322</v>
       </c>
       <c r="E342">
-        <v>265.071</v>
+        <v>265.079</v>
       </c>
       <c r="F342">
-        <v>2.638</v>
+        <v>2.623</v>
       </c>
       <c r="G342">
-        <v>17.161</v>
+        <v>16.734</v>
       </c>
       <c r="H342">
-        <v>78.257</v>
+        <v>74.79</v>
       </c>
       <c r="I342">
-        <v>62.128</v>
+        <v>59.681</v>
       </c>
       <c r="J342">
-        <v>3.307</v>
+        <v>3.668</v>
       </c>
     </row>
     <row r="343" spans="1:10">
@@ -12175,31 +12178,31 @@
         <v>13</v>
       </c>
       <c r="B343">
-        <v>2878.5</v>
+        <v>2880.125</v>
       </c>
       <c r="C343">
         <v>2</v>
       </c>
       <c r="D343">
-        <v>189.515</v>
+        <v>191.53</v>
       </c>
       <c r="E343">
-        <v>265.097</v>
+        <v>265.005</v>
       </c>
       <c r="F343">
-        <v>2.633</v>
+        <v>2.626</v>
       </c>
       <c r="G343">
-        <v>17.337</v>
+        <v>16.252</v>
       </c>
       <c r="H343">
-        <v>78.35</v>
+        <v>74.429</v>
       </c>
       <c r="I343">
-        <v>62.31</v>
+        <v>59.518</v>
       </c>
       <c r="J343">
-        <v>3.419</v>
+        <v>3.679</v>
       </c>
     </row>
     <row r="344" spans="1:10">
@@ -12207,31 +12210,31 @@
         <v>13</v>
       </c>
       <c r="B344">
-        <v>2878.625</v>
+        <v>2880.25</v>
       </c>
       <c r="C344">
         <v>2</v>
       </c>
       <c r="D344">
-        <v>190.817</v>
+        <v>185.804</v>
       </c>
       <c r="E344">
-        <v>265.103</v>
+        <v>264.795</v>
       </c>
       <c r="F344">
-        <v>2.628</v>
+        <v>2.63</v>
       </c>
       <c r="G344">
-        <v>17.344</v>
+        <v>15.903</v>
       </c>
       <c r="H344">
-        <v>77.167</v>
+        <v>74.784</v>
       </c>
       <c r="I344">
-        <v>61.464</v>
+        <v>59.995</v>
       </c>
       <c r="J344">
-        <v>3.531</v>
+        <v>3.669</v>
       </c>
     </row>
     <row r="345" spans="1:10">
@@ -12239,31 +12242,31 @@
         <v>13</v>
       </c>
       <c r="B345">
-        <v>2878.75</v>
+        <v>2880.375</v>
       </c>
       <c r="C345">
         <v>2</v>
       </c>
       <c r="D345">
-        <v>194.322</v>
+        <v>180.803</v>
       </c>
       <c r="E345">
-        <v>265.079</v>
+        <v>264.706</v>
       </c>
       <c r="F345">
-        <v>2.623</v>
+        <v>2.634</v>
       </c>
       <c r="G345">
-        <v>16.734</v>
+        <v>15.724</v>
       </c>
       <c r="H345">
-        <v>74.79</v>
+        <v>75.663</v>
       </c>
       <c r="I345">
-        <v>59.681</v>
+        <v>60.941</v>
       </c>
       <c r="J345">
-        <v>3.668</v>
+        <v>3.673</v>
       </c>
     </row>
     <row r="346" spans="1:10">
@@ -12271,31 +12274,31 @@
         <v>13</v>
       </c>
       <c r="B346">
-        <v>2880.125</v>
+        <v>2881.875</v>
       </c>
       <c r="C346">
         <v>2</v>
       </c>
       <c r="D346">
-        <v>191.53</v>
+        <v>191.306</v>
       </c>
       <c r="E346">
-        <v>265.005</v>
+        <v>268.203</v>
       </c>
       <c r="F346">
-        <v>2.626</v>
+        <v>2.619</v>
       </c>
       <c r="G346">
-        <v>16.252</v>
+        <v>15.597</v>
       </c>
       <c r="H346">
-        <v>74.429</v>
+        <v>78.378</v>
       </c>
       <c r="I346">
-        <v>59.518</v>
+        <v>64.643</v>
       </c>
       <c r="J346">
-        <v>3.679</v>
+        <v>3.685</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -12303,31 +12306,31 @@
         <v>13</v>
       </c>
       <c r="B347">
-        <v>2880.25</v>
+        <v>2883.25</v>
       </c>
       <c r="C347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D347">
-        <v>185.804</v>
+        <v>191.312</v>
       </c>
       <c r="E347">
-        <v>264.795</v>
+        <v>272.557</v>
       </c>
       <c r="F347">
-        <v>2.63</v>
+        <v>2.622</v>
       </c>
       <c r="G347">
-        <v>15.903</v>
+        <v>16.263</v>
       </c>
       <c r="H347">
-        <v>74.784</v>
+        <v>23.354</v>
       </c>
       <c r="I347">
-        <v>59.995</v>
+        <v>19.524</v>
       </c>
       <c r="J347">
-        <v>3.669</v>
+        <v>2.848</v>
       </c>
     </row>
     <row r="348" spans="1:10">
@@ -12335,31 +12338,31 @@
         <v>13</v>
       </c>
       <c r="B348">
-        <v>2880.375</v>
+        <v>2883.375</v>
       </c>
       <c r="C348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D348">
-        <v>180.803</v>
+        <v>190.751</v>
       </c>
       <c r="E348">
-        <v>264.706</v>
+        <v>271.908</v>
       </c>
       <c r="F348">
-        <v>2.634</v>
+        <v>2.622</v>
       </c>
       <c r="G348">
-        <v>15.724</v>
+        <v>15.844</v>
       </c>
       <c r="H348">
-        <v>75.663</v>
+        <v>42.573</v>
       </c>
       <c r="I348">
-        <v>60.941</v>
+        <v>35.838</v>
       </c>
       <c r="J348">
-        <v>3.673</v>
+        <v>2.813</v>
       </c>
     </row>
     <row r="349" spans="1:10">
@@ -12367,31 +12370,31 @@
         <v>13</v>
       </c>
       <c r="B349">
-        <v>2881.875</v>
+        <v>2883.5</v>
       </c>
       <c r="C349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D349">
-        <v>191.306</v>
+        <v>185.138</v>
       </c>
       <c r="E349">
-        <v>268.203</v>
+        <v>268.838</v>
       </c>
       <c r="F349">
-        <v>2.619</v>
+        <v>2.644</v>
       </c>
       <c r="G349">
-        <v>15.597</v>
+        <v>14.754</v>
       </c>
       <c r="H349">
-        <v>78.378</v>
+        <v>64.748</v>
       </c>
       <c r="I349">
-        <v>64.643</v>
+        <v>54.51</v>
       </c>
       <c r="J349">
-        <v>3.685</v>
+        <v>3.172</v>
       </c>
     </row>
     <row r="350" spans="1:10">
@@ -12399,31 +12402,31 @@
         <v>13</v>
       </c>
       <c r="B350">
-        <v>2883.25</v>
+        <v>2886.25</v>
       </c>
       <c r="C350">
         <v>1</v>
       </c>
       <c r="D350">
-        <v>191.312</v>
+        <v>198.72</v>
       </c>
       <c r="E350">
-        <v>272.557</v>
+        <v>257.888</v>
       </c>
       <c r="F350">
-        <v>2.622</v>
+        <v>2.578</v>
       </c>
       <c r="G350">
-        <v>16.263</v>
+        <v>13.766</v>
       </c>
       <c r="H350">
-        <v>23.354</v>
+        <v>108.065</v>
       </c>
       <c r="I350">
-        <v>19.524</v>
+        <v>87.83</v>
       </c>
       <c r="J350">
-        <v>2.848</v>
+        <v>3.016</v>
       </c>
     </row>
     <row r="351" spans="1:10">
@@ -12431,31 +12434,31 @@
         <v>13</v>
       </c>
       <c r="B351">
-        <v>2883.375</v>
+        <v>2886.375</v>
       </c>
       <c r="C351">
         <v>1</v>
       </c>
       <c r="D351">
-        <v>190.751</v>
+        <v>201.937</v>
       </c>
       <c r="E351">
-        <v>271.908</v>
+        <v>256.577</v>
       </c>
       <c r="F351">
-        <v>2.622</v>
+        <v>2.578</v>
       </c>
       <c r="G351">
-        <v>15.844</v>
+        <v>13.688</v>
       </c>
       <c r="H351">
-        <v>42.573</v>
+        <v>108.003</v>
       </c>
       <c r="I351">
-        <v>35.838</v>
+        <v>88.086</v>
       </c>
       <c r="J351">
-        <v>2.813</v>
+        <v>2.983</v>
       </c>
     </row>
     <row r="352" spans="1:10">
@@ -12463,31 +12466,31 @@
         <v>13</v>
       </c>
       <c r="B352">
-        <v>2883.5</v>
+        <v>2886.5</v>
       </c>
       <c r="C352">
         <v>1</v>
       </c>
       <c r="D352">
-        <v>185.138</v>
+        <v>232.297</v>
       </c>
       <c r="E352">
-        <v>268.838</v>
+        <v>274.879</v>
       </c>
       <c r="F352">
-        <v>2.644</v>
+        <v>2.621</v>
       </c>
       <c r="G352">
-        <v>14.754</v>
+        <v>15.169</v>
       </c>
       <c r="H352">
-        <v>64.748</v>
+        <v>55.802</v>
       </c>
       <c r="I352">
-        <v>54.51</v>
+        <v>47.688</v>
       </c>
       <c r="J352">
-        <v>3.172</v>
+        <v>3.093</v>
       </c>
     </row>
     <row r="353" spans="1:10">
@@ -12495,31 +12498,31 @@
         <v>13</v>
       </c>
       <c r="B353">
-        <v>2886.25</v>
+        <v>2888</v>
       </c>
       <c r="C353">
         <v>1</v>
       </c>
       <c r="D353">
-        <v>198.72</v>
+        <v>211.022</v>
       </c>
       <c r="E353">
-        <v>257.888</v>
+        <v>252.492</v>
       </c>
       <c r="F353">
-        <v>2.578</v>
+        <v>2.624</v>
       </c>
       <c r="G353">
-        <v>13.766</v>
+        <v>13.748</v>
       </c>
       <c r="H353">
-        <v>108.065</v>
+        <v>64.637</v>
       </c>
       <c r="I353">
-        <v>87.83</v>
+        <v>53.92</v>
       </c>
       <c r="J353">
-        <v>3.016</v>
+        <v>2.756</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -12527,31 +12530,31 @@
         <v>13</v>
       </c>
       <c r="B354">
-        <v>2886.375</v>
+        <v>2888.125</v>
       </c>
       <c r="C354">
         <v>1</v>
       </c>
       <c r="D354">
-        <v>201.937</v>
+        <v>213.836</v>
       </c>
       <c r="E354">
-        <v>256.577</v>
+        <v>252.878</v>
       </c>
       <c r="F354">
-        <v>2.578</v>
+        <v>2.626</v>
       </c>
       <c r="G354">
-        <v>13.688</v>
+        <v>13.207</v>
       </c>
       <c r="H354">
-        <v>108.003</v>
+        <v>57.805</v>
       </c>
       <c r="I354">
-        <v>88.086</v>
+        <v>48.623</v>
       </c>
       <c r="J354">
-        <v>2.983</v>
+        <v>2.726</v>
       </c>
     </row>
     <row r="355" spans="1:10">
@@ -12559,31 +12562,31 @@
         <v>13</v>
       </c>
       <c r="B355">
-        <v>2886.5</v>
+        <v>2888.25</v>
       </c>
       <c r="C355">
         <v>1</v>
       </c>
       <c r="D355">
-        <v>232.297</v>
+        <v>202.957</v>
       </c>
       <c r="E355">
-        <v>274.879</v>
+        <v>245.983</v>
       </c>
       <c r="F355">
-        <v>2.621</v>
+        <v>2.625</v>
       </c>
       <c r="G355">
-        <v>15.169</v>
+        <v>12.286</v>
       </c>
       <c r="H355">
-        <v>55.802</v>
+        <v>65.335</v>
       </c>
       <c r="I355">
-        <v>47.688</v>
+        <v>55.149</v>
       </c>
       <c r="J355">
-        <v>3.093</v>
+        <v>2.624</v>
       </c>
     </row>
     <row r="356" spans="1:10">
@@ -12591,31 +12594,31 @@
         <v>13</v>
       </c>
       <c r="B356">
-        <v>2888</v>
+        <v>2889.125</v>
       </c>
       <c r="C356">
         <v>1</v>
       </c>
       <c r="D356">
-        <v>211.022</v>
+        <v>203.683</v>
       </c>
       <c r="E356">
-        <v>252.492</v>
+        <v>245.696</v>
       </c>
       <c r="F356">
-        <v>2.624</v>
+        <v>2.63</v>
       </c>
       <c r="G356">
-        <v>13.748</v>
+        <v>12.403</v>
       </c>
       <c r="H356">
-        <v>64.637</v>
+        <v>93.981</v>
       </c>
       <c r="I356">
-        <v>53.92</v>
+        <v>79.421</v>
       </c>
       <c r="J356">
-        <v>2.756</v>
+        <v>2.639</v>
       </c>
     </row>
     <row r="357" spans="1:10">
@@ -12623,31 +12626,31 @@
         <v>13</v>
       </c>
       <c r="B357">
-        <v>2888.125</v>
+        <v>2889.25</v>
       </c>
       <c r="C357">
         <v>1</v>
       </c>
       <c r="D357">
-        <v>213.836</v>
+        <v>213.344</v>
       </c>
       <c r="E357">
-        <v>252.878</v>
+        <v>247.116</v>
       </c>
       <c r="F357">
-        <v>2.626</v>
+        <v>2.627</v>
       </c>
       <c r="G357">
-        <v>13.207</v>
+        <v>12.765</v>
       </c>
       <c r="H357">
-        <v>57.805</v>
+        <v>109.969</v>
       </c>
       <c r="I357">
-        <v>48.623</v>
+        <v>92.281</v>
       </c>
       <c r="J357">
-        <v>2.726</v>
+        <v>2.374</v>
       </c>
     </row>
     <row r="358" spans="1:10">
@@ -12655,31 +12658,31 @@
         <v>13</v>
       </c>
       <c r="B358">
-        <v>2888.25</v>
+        <v>2889.375</v>
       </c>
       <c r="C358">
         <v>1</v>
       </c>
       <c r="D358">
-        <v>202.957</v>
+        <v>209.516</v>
       </c>
       <c r="E358">
-        <v>245.983</v>
+        <v>248.093</v>
       </c>
       <c r="F358">
-        <v>2.625</v>
+        <v>2.627</v>
       </c>
       <c r="G358">
-        <v>12.286</v>
+        <v>12.485</v>
       </c>
       <c r="H358">
-        <v>65.335</v>
+        <v>118.631</v>
       </c>
       <c r="I358">
-        <v>55.149</v>
+        <v>99.248</v>
       </c>
       <c r="J358">
-        <v>2.624</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="359" spans="1:10">
@@ -12687,31 +12690,31 @@
         <v>13</v>
       </c>
       <c r="B359">
-        <v>2889.125</v>
+        <v>2890.125</v>
       </c>
       <c r="C359">
         <v>1</v>
       </c>
       <c r="D359">
-        <v>203.683</v>
+        <v>209.761</v>
       </c>
       <c r="E359">
-        <v>245.696</v>
+        <v>249.581</v>
       </c>
       <c r="F359">
-        <v>2.63</v>
+        <v>2.616</v>
       </c>
       <c r="G359">
-        <v>12.403</v>
+        <v>11.476</v>
       </c>
       <c r="H359">
-        <v>93.981</v>
+        <v>88.277</v>
       </c>
       <c r="I359">
-        <v>79.421</v>
+        <v>71.29</v>
       </c>
       <c r="J359">
-        <v>2.639</v>
+        <v>2.515</v>
       </c>
     </row>
     <row r="360" spans="1:10">
@@ -12719,31 +12722,31 @@
         <v>13</v>
       </c>
       <c r="B360">
-        <v>2889.25</v>
+        <v>2890.25</v>
       </c>
       <c r="C360">
         <v>1</v>
       </c>
       <c r="D360">
-        <v>213.344</v>
+        <v>213.236</v>
       </c>
       <c r="E360">
-        <v>247.116</v>
+        <v>249.166</v>
       </c>
       <c r="F360">
-        <v>2.627</v>
+        <v>2.607</v>
       </c>
       <c r="G360">
-        <v>12.765</v>
+        <v>11.63</v>
       </c>
       <c r="H360">
-        <v>109.969</v>
+        <v>88.948</v>
       </c>
       <c r="I360">
-        <v>92.281</v>
+        <v>71.558</v>
       </c>
       <c r="J360">
-        <v>2.374</v>
+        <v>2.545</v>
       </c>
     </row>
     <row r="361" spans="1:10">
@@ -12751,31 +12754,31 @@
         <v>13</v>
       </c>
       <c r="B361">
-        <v>2889.375</v>
+        <v>2890.375</v>
       </c>
       <c r="C361">
         <v>1</v>
       </c>
       <c r="D361">
-        <v>209.516</v>
+        <v>200.59</v>
       </c>
       <c r="E361">
-        <v>248.093</v>
+        <v>250.257</v>
       </c>
       <c r="F361">
-        <v>2.627</v>
+        <v>2.588</v>
       </c>
       <c r="G361">
-        <v>12.485</v>
+        <v>12.139</v>
       </c>
       <c r="H361">
-        <v>118.631</v>
+        <v>131.738</v>
       </c>
       <c r="I361">
-        <v>99.248</v>
+        <v>105.533</v>
       </c>
       <c r="J361">
-        <v>2.35</v>
+        <v>2.743</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -12783,31 +12786,31 @@
         <v>13</v>
       </c>
       <c r="B362">
-        <v>2890.125</v>
+        <v>2891.125</v>
       </c>
       <c r="C362">
         <v>1</v>
       </c>
       <c r="D362">
-        <v>209.761</v>
+        <v>196.759</v>
       </c>
       <c r="E362">
-        <v>249.581</v>
+        <v>251.841</v>
       </c>
       <c r="F362">
-        <v>2.616</v>
+        <v>2.589</v>
       </c>
       <c r="G362">
-        <v>11.476</v>
+        <v>11.918</v>
       </c>
       <c r="H362">
-        <v>88.277</v>
+        <v>124.29</v>
       </c>
       <c r="I362">
-        <v>71.29</v>
+        <v>99.981</v>
       </c>
       <c r="J362">
-        <v>2.515</v>
+        <v>2.887</v>
       </c>
     </row>
     <row r="363" spans="1:10">
@@ -12815,31 +12818,31 @@
         <v>13</v>
       </c>
       <c r="B363">
-        <v>2890.25</v>
+        <v>2891.25</v>
       </c>
       <c r="C363">
         <v>1</v>
       </c>
       <c r="D363">
-        <v>213.236</v>
+        <v>203.285</v>
       </c>
       <c r="E363">
-        <v>249.166</v>
+        <v>250.595</v>
       </c>
       <c r="F363">
-        <v>2.607</v>
+        <v>2.594</v>
       </c>
       <c r="G363">
-        <v>11.63</v>
+        <v>11.132</v>
       </c>
       <c r="H363">
-        <v>88.948</v>
+        <v>61.053</v>
       </c>
       <c r="I363">
-        <v>71.558</v>
+        <v>47.976</v>
       </c>
       <c r="J363">
-        <v>2.545</v>
+        <v>2.957</v>
       </c>
     </row>
     <row r="364" spans="1:10">
@@ -12847,31 +12850,31 @@
         <v>13</v>
       </c>
       <c r="B364">
-        <v>2890.375</v>
+        <v>2891.375</v>
       </c>
       <c r="C364">
         <v>1</v>
       </c>
       <c r="D364">
-        <v>200.59</v>
+        <v>200.415</v>
       </c>
       <c r="E364">
-        <v>250.257</v>
+        <v>250.002</v>
       </c>
       <c r="F364">
-        <v>2.588</v>
+        <v>2.598</v>
       </c>
       <c r="G364">
-        <v>12.139</v>
+        <v>11.321</v>
       </c>
       <c r="H364">
-        <v>131.738</v>
+        <v>93.14</v>
       </c>
       <c r="I364">
-        <v>105.533</v>
+        <v>73.368</v>
       </c>
       <c r="J364">
-        <v>2.743</v>
+        <v>2.822</v>
       </c>
     </row>
     <row r="365" spans="1:10">
@@ -12879,31 +12882,31 @@
         <v>13</v>
       </c>
       <c r="B365">
-        <v>2891.125</v>
+        <v>2892.25</v>
       </c>
       <c r="C365">
         <v>1</v>
       </c>
       <c r="D365">
-        <v>196.759</v>
+        <v>187.379</v>
       </c>
       <c r="E365">
-        <v>251.841</v>
+        <v>246.973</v>
       </c>
       <c r="F365">
-        <v>2.589</v>
+        <v>2.579</v>
       </c>
       <c r="G365">
-        <v>11.918</v>
+        <v>12.168</v>
       </c>
       <c r="H365">
-        <v>124.29</v>
+        <v>119.828</v>
       </c>
       <c r="I365">
-        <v>99.981</v>
+        <v>95.171</v>
       </c>
       <c r="J365">
-        <v>2.887</v>
+        <v>2.701</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -12911,31 +12914,31 @@
         <v>13</v>
       </c>
       <c r="B366">
-        <v>2891.25</v>
+        <v>2892.375</v>
       </c>
       <c r="C366">
         <v>1</v>
       </c>
       <c r="D366">
-        <v>203.285</v>
+        <v>191.92</v>
       </c>
       <c r="E366">
-        <v>250.595</v>
+        <v>250.404</v>
       </c>
       <c r="F366">
-        <v>2.594</v>
+        <v>2.581</v>
       </c>
       <c r="G366">
-        <v>11.132</v>
+        <v>12.569</v>
       </c>
       <c r="H366">
-        <v>61.053</v>
+        <v>115.589</v>
       </c>
       <c r="I366">
-        <v>47.976</v>
+        <v>92.557</v>
       </c>
       <c r="J366">
-        <v>2.957</v>
+        <v>2.738</v>
       </c>
     </row>
     <row r="367" spans="1:10">
@@ -12943,31 +12946,31 @@
         <v>13</v>
       </c>
       <c r="B367">
-        <v>2891.375</v>
+        <v>2892.5</v>
       </c>
       <c r="C367">
         <v>1</v>
       </c>
       <c r="D367">
-        <v>200.415</v>
+        <v>214.866</v>
       </c>
       <c r="E367">
-        <v>250.002</v>
+        <v>254.28</v>
       </c>
       <c r="F367">
         <v>2.598</v>
       </c>
       <c r="G367">
-        <v>11.321</v>
+        <v>11.323</v>
       </c>
       <c r="H367">
-        <v>93.14</v>
+        <v>49.235</v>
       </c>
       <c r="I367">
-        <v>73.368</v>
+        <v>40.406</v>
       </c>
       <c r="J367">
-        <v>2.822</v>
+        <v>3.135</v>
       </c>
     </row>
     <row r="368" spans="1:10">
@@ -12975,31 +12978,31 @@
         <v>13</v>
       </c>
       <c r="B368">
-        <v>2892.25</v>
+        <v>2893.125</v>
       </c>
       <c r="C368">
         <v>1</v>
       </c>
       <c r="D368">
-        <v>187.379</v>
+        <v>205.511</v>
       </c>
       <c r="E368">
-        <v>246.973</v>
+        <v>252.369</v>
       </c>
       <c r="F368">
-        <v>2.579</v>
+        <v>2.611</v>
       </c>
       <c r="G368">
-        <v>12.168</v>
+        <v>11.245</v>
       </c>
       <c r="H368">
-        <v>119.828</v>
+        <v>69.025</v>
       </c>
       <c r="I368">
-        <v>95.171</v>
+        <v>57.322</v>
       </c>
       <c r="J368">
-        <v>2.701</v>
+        <v>3.152</v>
       </c>
     </row>
     <row r="369" spans="1:10">
@@ -13007,31 +13010,31 @@
         <v>13</v>
       </c>
       <c r="B369">
-        <v>2892.375</v>
+        <v>2893.25</v>
       </c>
       <c r="C369">
         <v>1</v>
       </c>
       <c r="D369">
-        <v>191.92</v>
+        <v>183.907</v>
       </c>
       <c r="E369">
-        <v>250.404</v>
+        <v>236.669</v>
       </c>
       <c r="F369">
-        <v>2.581</v>
+        <v>2.721</v>
       </c>
       <c r="G369">
-        <v>12.569</v>
+        <v>18.168</v>
       </c>
       <c r="H369">
-        <v>115.589</v>
+        <v>40.823</v>
       </c>
       <c r="I369">
-        <v>92.557</v>
+        <v>38.749</v>
       </c>
       <c r="J369">
-        <v>2.738</v>
+        <v>3.908</v>
       </c>
     </row>
     <row r="370" spans="1:10">
@@ -13039,31 +13042,31 @@
         <v>13</v>
       </c>
       <c r="B370">
-        <v>2892.5</v>
+        <v>2893.375</v>
       </c>
       <c r="C370">
         <v>1</v>
       </c>
       <c r="D370">
-        <v>214.866</v>
+        <v>180.328</v>
       </c>
       <c r="E370">
-        <v>254.28</v>
+        <v>239.178</v>
       </c>
       <c r="F370">
-        <v>2.598</v>
+        <v>2.692</v>
       </c>
       <c r="G370">
-        <v>11.323</v>
+        <v>17.14</v>
       </c>
       <c r="H370">
-        <v>49.235</v>
+        <v>44.431</v>
       </c>
       <c r="I370">
-        <v>40.406</v>
+        <v>42.863</v>
       </c>
       <c r="J370">
-        <v>3.135</v>
+        <v>3.076</v>
       </c>
     </row>
     <row r="371" spans="1:10">
@@ -13071,31 +13074,31 @@
         <v>13</v>
       </c>
       <c r="B371">
-        <v>2893.125</v>
+        <v>2894</v>
       </c>
       <c r="C371">
         <v>1</v>
       </c>
       <c r="D371">
-        <v>205.511</v>
+        <v>100.828</v>
       </c>
       <c r="E371">
-        <v>252.369</v>
+        <v>203.227</v>
       </c>
       <c r="F371">
-        <v>2.611</v>
+        <v>2.747</v>
       </c>
       <c r="G371">
-        <v>11.245</v>
+        <v>10.132</v>
       </c>
       <c r="H371">
-        <v>69.025</v>
+        <v>176.99</v>
       </c>
       <c r="I371">
-        <v>57.322</v>
+        <v>176.005</v>
       </c>
       <c r="J371">
-        <v>3.152</v>
+        <v>2.078</v>
       </c>
     </row>
     <row r="372" spans="1:10">
@@ -13103,31 +13106,31 @@
         <v>13</v>
       </c>
       <c r="B372">
-        <v>2893.25</v>
+        <v>2894.125</v>
       </c>
       <c r="C372">
         <v>1</v>
       </c>
       <c r="D372">
-        <v>183.907</v>
+        <v>104.447</v>
       </c>
       <c r="E372">
-        <v>236.669</v>
+        <v>206.898</v>
       </c>
       <c r="F372">
-        <v>2.721</v>
+        <v>2.717</v>
       </c>
       <c r="G372">
-        <v>18.168</v>
+        <v>10.587</v>
       </c>
       <c r="H372">
-        <v>40.823</v>
+        <v>184.46</v>
       </c>
       <c r="I372">
-        <v>38.749</v>
+        <v>182.646</v>
       </c>
       <c r="J372">
-        <v>3.908</v>
+        <v>2.434</v>
       </c>
     </row>
     <row r="373" spans="1:10">
@@ -13135,31 +13138,31 @@
         <v>13</v>
       </c>
       <c r="B373">
-        <v>2893.375</v>
+        <v>2894.25</v>
       </c>
       <c r="C373">
         <v>1</v>
       </c>
       <c r="D373">
-        <v>180.328</v>
+        <v>186.036</v>
       </c>
       <c r="E373">
-        <v>239.178</v>
+        <v>261.458</v>
       </c>
       <c r="F373">
-        <v>2.692</v>
+        <v>2.672</v>
       </c>
       <c r="G373">
-        <v>17.14</v>
+        <v>19.043</v>
       </c>
       <c r="H373">
-        <v>44.431</v>
+        <v>38.858</v>
       </c>
       <c r="I373">
-        <v>42.863</v>
+        <v>38.131</v>
       </c>
       <c r="J373">
-        <v>3.076</v>
+        <v>4.175</v>
       </c>
     </row>
     <row r="374" spans="1:10">
@@ -13167,31 +13170,31 @@
         <v>13</v>
       </c>
       <c r="B374">
-        <v>2894</v>
+        <v>2894.75</v>
       </c>
       <c r="C374">
         <v>1</v>
       </c>
       <c r="D374">
-        <v>100.828</v>
+        <v>202.446</v>
       </c>
       <c r="E374">
-        <v>203.227</v>
+        <v>264.131</v>
       </c>
       <c r="F374">
-        <v>2.747</v>
+        <v>2.694</v>
       </c>
       <c r="G374">
-        <v>10.132</v>
+        <v>19.285</v>
       </c>
       <c r="H374">
-        <v>176.99</v>
+        <v>33.17</v>
       </c>
       <c r="I374">
-        <v>176.005</v>
+        <v>30.072</v>
       </c>
       <c r="J374">
-        <v>2.078</v>
+        <v>3.592</v>
       </c>
     </row>
     <row r="375" spans="1:10">
@@ -13199,31 +13202,31 @@
         <v>13</v>
       </c>
       <c r="B375">
-        <v>2894.125</v>
+        <v>2894.875</v>
       </c>
       <c r="C375">
         <v>1</v>
       </c>
       <c r="D375">
-        <v>104.447</v>
+        <v>196.57</v>
       </c>
       <c r="E375">
-        <v>206.898</v>
+        <v>262.243</v>
       </c>
       <c r="F375">
-        <v>2.717</v>
+        <v>2.686</v>
       </c>
       <c r="G375">
-        <v>10.587</v>
+        <v>17.472</v>
       </c>
       <c r="H375">
-        <v>184.46</v>
+        <v>47.324</v>
       </c>
       <c r="I375">
-        <v>182.646</v>
+        <v>43.213</v>
       </c>
       <c r="J375">
-        <v>2.434</v>
+        <v>4.032</v>
       </c>
     </row>
     <row r="376" spans="1:10">
@@ -13231,31 +13234,31 @@
         <v>13</v>
       </c>
       <c r="B376">
-        <v>2894.25</v>
+        <v>2895</v>
       </c>
       <c r="C376">
         <v>1</v>
       </c>
       <c r="D376">
-        <v>186.036</v>
+        <v>192.817</v>
       </c>
       <c r="E376">
-        <v>261.458</v>
+        <v>235.399</v>
       </c>
       <c r="F376">
-        <v>2.672</v>
+        <v>2.69</v>
       </c>
       <c r="G376">
-        <v>19.043</v>
+        <v>14.225</v>
       </c>
       <c r="H376">
-        <v>38.858</v>
+        <v>25.576</v>
       </c>
       <c r="I376">
-        <v>38.131</v>
+        <v>23.374</v>
       </c>
       <c r="J376">
-        <v>4.175</v>
+        <v>3.844</v>
       </c>
     </row>
     <row r="377" spans="1:10">
@@ -13263,31 +13266,31 @@
         <v>13</v>
       </c>
       <c r="B377">
-        <v>2894.75</v>
+        <v>2895.625</v>
       </c>
       <c r="C377">
         <v>1</v>
       </c>
       <c r="D377">
-        <v>202.446</v>
+        <v>189.552</v>
       </c>
       <c r="E377">
-        <v>264.131</v>
+        <v>241.011</v>
       </c>
       <c r="F377">
-        <v>2.694</v>
+        <v>2.668</v>
       </c>
       <c r="G377">
-        <v>19.285</v>
+        <v>13.896</v>
       </c>
       <c r="H377">
-        <v>33.17</v>
+        <v>55.639</v>
       </c>
       <c r="I377">
-        <v>30.072</v>
+        <v>49.615</v>
       </c>
       <c r="J377">
-        <v>3.592</v>
+        <v>3.157</v>
       </c>
     </row>
     <row r="378" spans="1:10">
@@ -13295,31 +13298,31 @@
         <v>13</v>
       </c>
       <c r="B378">
-        <v>2894.875</v>
+        <v>2895.75</v>
       </c>
       <c r="C378">
         <v>1</v>
       </c>
       <c r="D378">
-        <v>196.57</v>
+        <v>188.545</v>
       </c>
       <c r="E378">
-        <v>262.243</v>
+        <v>245.99</v>
       </c>
       <c r="F378">
-        <v>2.686</v>
+        <v>2.663</v>
       </c>
       <c r="G378">
-        <v>17.472</v>
+        <v>14.669</v>
       </c>
       <c r="H378">
-        <v>47.324</v>
+        <v>11.92</v>
       </c>
       <c r="I378">
-        <v>43.213</v>
+        <v>10.613</v>
       </c>
       <c r="J378">
-        <v>4.032</v>
+        <v>2.815</v>
       </c>
     </row>
     <row r="379" spans="1:10">
@@ -13327,31 +13330,31 @@
         <v>13</v>
       </c>
       <c r="B379">
-        <v>2895</v>
+        <v>2895.875</v>
       </c>
       <c r="C379">
         <v>1</v>
       </c>
       <c r="D379">
-        <v>192.817</v>
+        <v>183.891</v>
       </c>
       <c r="E379">
-        <v>235.399</v>
+        <v>236.131</v>
       </c>
       <c r="F379">
-        <v>2.69</v>
+        <v>2.671</v>
       </c>
       <c r="G379">
-        <v>14.225</v>
+        <v>14.131</v>
       </c>
       <c r="H379">
-        <v>25.576</v>
+        <v>79.665</v>
       </c>
       <c r="I379">
-        <v>23.374</v>
+        <v>69.175</v>
       </c>
       <c r="J379">
-        <v>3.844</v>
+        <v>3.199</v>
       </c>
     </row>
     <row r="380" spans="1:10">
@@ -13359,31 +13362,31 @@
         <v>13</v>
       </c>
       <c r="B380">
-        <v>2895.625</v>
+        <v>2896.625</v>
       </c>
       <c r="C380">
         <v>1</v>
       </c>
       <c r="D380">
-        <v>189.552</v>
+        <v>171.301</v>
       </c>
       <c r="E380">
-        <v>241.011</v>
+        <v>240.207</v>
       </c>
       <c r="F380">
-        <v>2.668</v>
+        <v>2.689</v>
       </c>
       <c r="G380">
-        <v>13.896</v>
+        <v>13.863</v>
       </c>
       <c r="H380">
-        <v>55.639</v>
+        <v>77.484</v>
       </c>
       <c r="I380">
-        <v>49.615</v>
+        <v>63.126</v>
       </c>
       <c r="J380">
-        <v>3.157</v>
+        <v>3.394</v>
       </c>
     </row>
     <row r="381" spans="1:10">
@@ -13391,31 +13394,31 @@
         <v>13</v>
       </c>
       <c r="B381">
-        <v>2895.75</v>
+        <v>2896.75</v>
       </c>
       <c r="C381">
         <v>1</v>
       </c>
       <c r="D381">
-        <v>188.545</v>
+        <v>187.366</v>
       </c>
       <c r="E381">
-        <v>245.99</v>
+        <v>243.232</v>
       </c>
       <c r="F381">
-        <v>2.663</v>
+        <v>2.656</v>
       </c>
       <c r="G381">
-        <v>14.669</v>
+        <v>14.791</v>
       </c>
       <c r="H381">
-        <v>11.92</v>
+        <v>83.786</v>
       </c>
       <c r="I381">
-        <v>10.613</v>
+        <v>67.056</v>
       </c>
       <c r="J381">
-        <v>2.815</v>
+        <v>2.764</v>
       </c>
     </row>
     <row r="382" spans="1:10">
@@ -13423,31 +13426,31 @@
         <v>13</v>
       </c>
       <c r="B382">
-        <v>2895.875</v>
+        <v>2896.875</v>
       </c>
       <c r="C382">
         <v>1</v>
       </c>
       <c r="D382">
-        <v>183.891</v>
+        <v>185.534</v>
       </c>
       <c r="E382">
-        <v>236.131</v>
+        <v>242.7</v>
       </c>
       <c r="F382">
         <v>2.671</v>
       </c>
       <c r="G382">
-        <v>14.131</v>
+        <v>13.575</v>
       </c>
       <c r="H382">
-        <v>79.665</v>
+        <v>89.442</v>
       </c>
       <c r="I382">
-        <v>69.175</v>
+        <v>71.449</v>
       </c>
       <c r="J382">
-        <v>3.199</v>
+        <v>3.271</v>
       </c>
     </row>
     <row r="383" spans="1:10">
@@ -13455,31 +13458,31 @@
         <v>13</v>
       </c>
       <c r="B383">
-        <v>2896.625</v>
+        <v>2900.25</v>
       </c>
       <c r="C383">
         <v>1</v>
       </c>
       <c r="D383">
-        <v>171.301</v>
+        <v>205.282</v>
       </c>
       <c r="E383">
-        <v>240.207</v>
+        <v>259.949</v>
       </c>
       <c r="F383">
-        <v>2.689</v>
+        <v>2.585</v>
       </c>
       <c r="G383">
-        <v>13.863</v>
+        <v>14.486</v>
       </c>
       <c r="H383">
-        <v>77.484</v>
+        <v>115.02</v>
       </c>
       <c r="I383">
-        <v>63.126</v>
+        <v>93.17</v>
       </c>
       <c r="J383">
-        <v>3.394</v>
+        <v>2.966</v>
       </c>
     </row>
     <row r="384" spans="1:10">
@@ -13487,31 +13490,31 @@
         <v>13</v>
       </c>
       <c r="B384">
-        <v>2896.75</v>
+        <v>2900.375</v>
       </c>
       <c r="C384">
         <v>1</v>
       </c>
       <c r="D384">
-        <v>187.366</v>
+        <v>206.764</v>
       </c>
       <c r="E384">
-        <v>243.232</v>
+        <v>255.833</v>
       </c>
       <c r="F384">
-        <v>2.656</v>
+        <v>2.581</v>
       </c>
       <c r="G384">
-        <v>14.791</v>
+        <v>13.659</v>
       </c>
       <c r="H384">
-        <v>83.786</v>
+        <v>109.473</v>
       </c>
       <c r="I384">
-        <v>67.056</v>
+        <v>89.872</v>
       </c>
       <c r="J384">
-        <v>2.764</v>
+        <v>2.963</v>
       </c>
     </row>
     <row r="385" spans="1:10">
@@ -13519,31 +13522,31 @@
         <v>13</v>
       </c>
       <c r="B385">
-        <v>2896.875</v>
+        <v>2900.5</v>
       </c>
       <c r="C385">
         <v>1</v>
       </c>
       <c r="D385">
-        <v>185.534</v>
+        <v>242.199</v>
       </c>
       <c r="E385">
-        <v>242.7</v>
+        <v>282.997</v>
       </c>
       <c r="F385">
-        <v>2.671</v>
+        <v>2.629</v>
       </c>
       <c r="G385">
-        <v>13.575</v>
+        <v>15.136</v>
       </c>
       <c r="H385">
-        <v>89.442</v>
+        <v>21.789</v>
       </c>
       <c r="I385">
-        <v>71.449</v>
+        <v>18.277</v>
       </c>
       <c r="J385">
-        <v>3.271</v>
+        <v>3.046</v>
       </c>
     </row>
     <row r="386" spans="1:10">
@@ -13551,31 +13554,31 @@
         <v>13</v>
       </c>
       <c r="B386">
-        <v>2900.25</v>
+        <v>2901.25</v>
       </c>
       <c r="C386">
         <v>1</v>
       </c>
       <c r="D386">
-        <v>205.282</v>
+        <v>205.719</v>
       </c>
       <c r="E386">
-        <v>259.949</v>
+        <v>256.87</v>
       </c>
       <c r="F386">
-        <v>2.585</v>
+        <v>2.656</v>
       </c>
       <c r="G386">
-        <v>14.486</v>
+        <v>14.543</v>
       </c>
       <c r="H386">
-        <v>115.02</v>
+        <v>36.129</v>
       </c>
       <c r="I386">
-        <v>93.17</v>
+        <v>29.634</v>
       </c>
       <c r="J386">
-        <v>2.966</v>
+        <v>2.576</v>
       </c>
     </row>
     <row r="387" spans="1:10">
@@ -13583,31 +13586,31 @@
         <v>13</v>
       </c>
       <c r="B387">
-        <v>2900.375</v>
+        <v>2901.375</v>
       </c>
       <c r="C387">
         <v>1</v>
       </c>
       <c r="D387">
-        <v>206.764</v>
+        <v>211.449</v>
       </c>
       <c r="E387">
-        <v>255.833</v>
+        <v>252.842</v>
       </c>
       <c r="F387">
-        <v>2.581</v>
+        <v>2.63</v>
       </c>
       <c r="G387">
-        <v>13.659</v>
+        <v>12.723</v>
       </c>
       <c r="H387">
-        <v>109.473</v>
+        <v>47.241</v>
       </c>
       <c r="I387">
-        <v>89.872</v>
+        <v>40.014</v>
       </c>
       <c r="J387">
-        <v>2.963</v>
+        <v>2.668</v>
       </c>
     </row>
     <row r="388" spans="1:10">
@@ -13615,31 +13618,31 @@
         <v>13</v>
       </c>
       <c r="B388">
-        <v>2900.5</v>
+        <v>2901.5</v>
       </c>
       <c r="C388">
         <v>1</v>
       </c>
       <c r="D388">
-        <v>242.199</v>
+        <v>203.864</v>
       </c>
       <c r="E388">
-        <v>282.997</v>
+        <v>246.091</v>
       </c>
       <c r="F388">
-        <v>2.629</v>
+        <v>2.631</v>
       </c>
       <c r="G388">
-        <v>15.136</v>
+        <v>12.59</v>
       </c>
       <c r="H388">
-        <v>21.789</v>
+        <v>109.691</v>
       </c>
       <c r="I388">
-        <v>18.277</v>
+        <v>92.555</v>
       </c>
       <c r="J388">
-        <v>3.046</v>
+        <v>2.639</v>
       </c>
     </row>
     <row r="389" spans="1:10">
@@ -13647,31 +13650,31 @@
         <v>13</v>
       </c>
       <c r="B389">
-        <v>2901.25</v>
+        <v>2902.25</v>
       </c>
       <c r="C389">
         <v>1</v>
       </c>
       <c r="D389">
-        <v>205.719</v>
+        <v>206.328</v>
       </c>
       <c r="E389">
-        <v>256.87</v>
+        <v>249.225</v>
       </c>
       <c r="F389">
-        <v>2.656</v>
+        <v>2.624</v>
       </c>
       <c r="G389">
-        <v>14.543</v>
+        <v>12.231</v>
       </c>
       <c r="H389">
-        <v>36.129</v>
+        <v>120.245</v>
       </c>
       <c r="I389">
-        <v>29.634</v>
+        <v>100.05</v>
       </c>
       <c r="J389">
-        <v>2.576</v>
+        <v>2.354</v>
       </c>
     </row>
     <row r="390" spans="1:10">
@@ -13679,31 +13682,31 @@
         <v>13</v>
       </c>
       <c r="B390">
-        <v>2901.375</v>
+        <v>2902.375</v>
       </c>
       <c r="C390">
         <v>1</v>
       </c>
       <c r="D390">
-        <v>211.449</v>
+        <v>218.661</v>
       </c>
       <c r="E390">
-        <v>252.842</v>
+        <v>248.339</v>
       </c>
       <c r="F390">
-        <v>2.63</v>
+        <v>2.601</v>
       </c>
       <c r="G390">
-        <v>12.723</v>
+        <v>12.153</v>
       </c>
       <c r="H390">
-        <v>47.241</v>
+        <v>95.529</v>
       </c>
       <c r="I390">
-        <v>40.014</v>
+        <v>76.644</v>
       </c>
       <c r="J390">
-        <v>2.668</v>
+        <v>2.546</v>
       </c>
     </row>
     <row r="391" spans="1:10">
@@ -13711,31 +13714,31 @@
         <v>13</v>
       </c>
       <c r="B391">
-        <v>2901.5</v>
+        <v>2902.5</v>
       </c>
       <c r="C391">
         <v>1</v>
       </c>
       <c r="D391">
-        <v>203.864</v>
+        <v>194.193</v>
       </c>
       <c r="E391">
-        <v>246.091</v>
+        <v>253.256</v>
       </c>
       <c r="F391">
-        <v>2.631</v>
+        <v>2.594</v>
       </c>
       <c r="G391">
-        <v>12.59</v>
+        <v>11.913</v>
       </c>
       <c r="H391">
-        <v>109.691</v>
+        <v>109.665</v>
       </c>
       <c r="I391">
-        <v>92.555</v>
+        <v>88.752</v>
       </c>
       <c r="J391">
-        <v>2.639</v>
+        <v>3.027</v>
       </c>
     </row>
     <row r="392" spans="1:10">
@@ -13743,31 +13746,31 @@
         <v>13</v>
       </c>
       <c r="B392">
-        <v>2902.25</v>
+        <v>2903.125</v>
       </c>
       <c r="C392">
         <v>1</v>
       </c>
       <c r="D392">
-        <v>206.328</v>
+        <v>197.218</v>
       </c>
       <c r="E392">
-        <v>249.225</v>
+        <v>250.135</v>
       </c>
       <c r="F392">
-        <v>2.624</v>
+        <v>2.601</v>
       </c>
       <c r="G392">
-        <v>12.231</v>
+        <v>11.717</v>
       </c>
       <c r="H392">
-        <v>120.245</v>
+        <v>125.133</v>
       </c>
       <c r="I392">
-        <v>100.05</v>
+        <v>98.679</v>
       </c>
       <c r="J392">
-        <v>2.354</v>
+        <v>2.739</v>
       </c>
     </row>
     <row r="393" spans="1:10">
@@ -13775,31 +13778,31 @@
         <v>13</v>
       </c>
       <c r="B393">
-        <v>2902.375</v>
+        <v>2903.25</v>
       </c>
       <c r="C393">
         <v>1</v>
       </c>
       <c r="D393">
-        <v>218.661</v>
+        <v>198.709</v>
       </c>
       <c r="E393">
-        <v>248.339</v>
+        <v>254.368</v>
       </c>
       <c r="F393">
-        <v>2.601</v>
+        <v>2.586</v>
       </c>
       <c r="G393">
-        <v>12.153</v>
+        <v>13.174</v>
       </c>
       <c r="H393">
-        <v>95.529</v>
+        <v>97.509</v>
       </c>
       <c r="I393">
-        <v>76.644</v>
+        <v>78.766</v>
       </c>
       <c r="J393">
-        <v>2.546</v>
+        <v>2.844</v>
       </c>
     </row>
     <row r="394" spans="1:10">
@@ -13807,419 +13810,35 @@
         <v>13</v>
       </c>
       <c r="B394">
-        <v>2902.5</v>
+        <v>2903.375</v>
       </c>
       <c r="C394">
         <v>1</v>
       </c>
       <c r="D394">
-        <v>194.193</v>
+        <v>198.717</v>
       </c>
       <c r="E394">
-        <v>253.256</v>
+        <v>251.726</v>
       </c>
       <c r="F394">
-        <v>2.594</v>
+        <v>2.62</v>
       </c>
       <c r="G394">
-        <v>11.913</v>
+        <v>11.389</v>
       </c>
       <c r="H394">
-        <v>109.665</v>
+        <v>86.414</v>
       </c>
       <c r="I394">
-        <v>88.752</v>
+        <v>72.539</v>
       </c>
       <c r="J394">
-        <v>3.027</v>
-      </c>
-    </row>
-    <row r="395" spans="1:10">
-      <c r="A395" t="s">
-        <v>13</v>
-      </c>
-      <c r="B395">
-        <v>2903.125</v>
-      </c>
-      <c r="C395">
-        <v>1</v>
-      </c>
-      <c r="D395">
-        <v>197.218</v>
-      </c>
-      <c r="E395">
-        <v>250.135</v>
-      </c>
-      <c r="F395">
-        <v>2.601</v>
-      </c>
-      <c r="G395">
-        <v>11.717</v>
-      </c>
-      <c r="H395">
-        <v>125.133</v>
-      </c>
-      <c r="I395">
-        <v>98.679</v>
-      </c>
-      <c r="J395">
-        <v>2.739</v>
-      </c>
-    </row>
-    <row r="396" spans="1:10">
-      <c r="A396" t="s">
-        <v>13</v>
-      </c>
-      <c r="B396">
-        <v>2903.25</v>
-      </c>
-      <c r="C396">
-        <v>1</v>
-      </c>
-      <c r="D396">
-        <v>198.709</v>
-      </c>
-      <c r="E396">
-        <v>254.368</v>
-      </c>
-      <c r="F396">
-        <v>2.586</v>
-      </c>
-      <c r="G396">
-        <v>13.174</v>
-      </c>
-      <c r="H396">
-        <v>97.509</v>
-      </c>
-      <c r="I396">
-        <v>78.766</v>
-      </c>
-      <c r="J396">
-        <v>2.844</v>
-      </c>
-    </row>
-    <row r="397" spans="1:10">
-      <c r="A397" t="s">
-        <v>13</v>
-      </c>
-      <c r="B397">
-        <v>2903.375</v>
-      </c>
-      <c r="C397">
-        <v>1</v>
-      </c>
-      <c r="D397">
-        <v>198.717</v>
-      </c>
-      <c r="E397">
-        <v>251.726</v>
-      </c>
-      <c r="F397">
-        <v>2.62</v>
-      </c>
-      <c r="G397">
-        <v>11.389</v>
-      </c>
-      <c r="H397">
-        <v>86.414</v>
-      </c>
-      <c r="I397">
-        <v>72.539</v>
-      </c>
-      <c r="J397">
         <v>3.15</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
-      <c r="A398" t="s">
-        <v>11</v>
-      </c>
-      <c r="B398">
-        <v>2615.625</v>
-      </c>
-      <c r="C398">
-        <v>3</v>
-      </c>
-      <c r="D398">
-        <v>213.388</v>
-      </c>
-      <c r="E398">
-        <v>226.21</v>
-      </c>
-      <c r="F398">
-        <v>2.613</v>
-      </c>
-      <c r="G398">
-        <v>7.306</v>
-      </c>
-      <c r="H398">
-        <v>40.447</v>
-      </c>
-      <c r="I398">
-        <v>42.848</v>
-      </c>
-      <c r="J398">
-        <v>2.431</v>
-      </c>
-    </row>
-    <row r="399" spans="1:10">
-      <c r="A399" t="s">
-        <v>11</v>
-      </c>
-      <c r="B399">
-        <v>2615.75</v>
-      </c>
-      <c r="C399">
-        <v>3</v>
-      </c>
-      <c r="D399">
-        <v>203.697</v>
-      </c>
-      <c r="E399">
-        <v>228.734</v>
-      </c>
-      <c r="F399">
-        <v>2.61</v>
-      </c>
-      <c r="G399">
-        <v>7.849</v>
-      </c>
-      <c r="H399">
-        <v>30.651</v>
-      </c>
-      <c r="I399">
-        <v>32.818</v>
-      </c>
-      <c r="J399">
-        <v>2.231</v>
-      </c>
-    </row>
-    <row r="400" spans="1:10">
-      <c r="A400" t="s">
-        <v>11</v>
-      </c>
-      <c r="B400">
-        <v>2615.875</v>
-      </c>
-      <c r="C400">
-        <v>3</v>
-      </c>
-      <c r="D400">
-        <v>210.302</v>
-      </c>
-      <c r="E400">
-        <v>234.457</v>
-      </c>
-      <c r="F400">
-        <v>2.569</v>
-      </c>
-      <c r="G400">
-        <v>9.559</v>
-      </c>
-      <c r="H400">
-        <v>21.823</v>
-      </c>
-      <c r="I400">
-        <v>23.516</v>
-      </c>
-      <c r="J400">
-        <v>2.081</v>
-      </c>
-    </row>
-    <row r="401" spans="1:10">
-      <c r="A401" t="s">
-        <v>11</v>
-      </c>
-      <c r="B401">
-        <v>2615.625</v>
-      </c>
-      <c r="C401">
-        <v>3</v>
-      </c>
-      <c r="D401">
-        <v>213.388</v>
-      </c>
-      <c r="E401">
-        <v>226.21</v>
-      </c>
-      <c r="F401">
-        <v>2.613</v>
-      </c>
-      <c r="G401">
-        <v>7.306</v>
-      </c>
-      <c r="H401">
-        <v>40.447</v>
-      </c>
-      <c r="I401">
-        <v>42.848</v>
-      </c>
-      <c r="J401">
-        <v>2.431</v>
-      </c>
-    </row>
-    <row r="402" spans="1:10">
-      <c r="A402" t="s">
-        <v>11</v>
-      </c>
-      <c r="B402">
-        <v>2615.75</v>
-      </c>
-      <c r="C402">
-        <v>3</v>
-      </c>
-      <c r="D402">
-        <v>203.697</v>
-      </c>
-      <c r="E402">
-        <v>228.734</v>
-      </c>
-      <c r="F402">
-        <v>2.61</v>
-      </c>
-      <c r="G402">
-        <v>7.849</v>
-      </c>
-      <c r="H402">
-        <v>30.651</v>
-      </c>
-      <c r="I402">
-        <v>32.818</v>
-      </c>
-      <c r="J402">
-        <v>2.231</v>
-      </c>
-    </row>
-    <row r="403" spans="1:10">
-      <c r="A403" t="s">
-        <v>11</v>
-      </c>
-      <c r="B403">
-        <v>2615.875</v>
-      </c>
-      <c r="C403">
-        <v>3</v>
-      </c>
-      <c r="D403">
-        <v>210.302</v>
-      </c>
-      <c r="E403">
-        <v>234.457</v>
-      </c>
-      <c r="F403">
-        <v>2.569</v>
-      </c>
-      <c r="G403">
-        <v>9.559</v>
-      </c>
-      <c r="H403">
-        <v>21.823</v>
-      </c>
-      <c r="I403">
-        <v>23.516</v>
-      </c>
-      <c r="J403">
-        <v>2.081</v>
-      </c>
-    </row>
-    <row r="404" spans="1:10">
-      <c r="A404" t="s">
-        <v>11</v>
-      </c>
-      <c r="B404">
-        <v>2615.625</v>
-      </c>
-      <c r="C404">
-        <v>3</v>
-      </c>
-      <c r="D404">
-        <v>213.388</v>
-      </c>
-      <c r="E404">
-        <v>226.21</v>
-      </c>
-      <c r="F404">
-        <v>2.613</v>
-      </c>
-      <c r="G404">
-        <v>7.306</v>
-      </c>
-      <c r="H404">
-        <v>40.447</v>
-      </c>
-      <c r="I404">
-        <v>42.848</v>
-      </c>
-      <c r="J404">
-        <v>2.431</v>
-      </c>
-    </row>
-    <row r="405" spans="1:10">
-      <c r="A405" t="s">
-        <v>11</v>
-      </c>
-      <c r="B405">
-        <v>2615.75</v>
-      </c>
-      <c r="C405">
-        <v>3</v>
-      </c>
-      <c r="D405">
-        <v>203.697</v>
-      </c>
-      <c r="E405">
-        <v>228.734</v>
-      </c>
-      <c r="F405">
-        <v>2.61</v>
-      </c>
-      <c r="G405">
-        <v>7.849</v>
-      </c>
-      <c r="H405">
-        <v>30.651</v>
-      </c>
-      <c r="I405">
-        <v>32.818</v>
-      </c>
-      <c r="J405">
-        <v>2.231</v>
-      </c>
-    </row>
-    <row r="406" spans="1:10">
-      <c r="A406" t="s">
-        <v>11</v>
-      </c>
-      <c r="B406">
-        <v>2615.875</v>
-      </c>
-      <c r="C406">
-        <v>3</v>
-      </c>
-      <c r="D406">
-        <v>210.302</v>
-      </c>
-      <c r="E406">
-        <v>234.457</v>
-      </c>
-      <c r="F406">
-        <v>2.569</v>
-      </c>
-      <c r="G406">
-        <v>9.559</v>
-      </c>
-      <c r="H406">
-        <v>21.823</v>
-      </c>
-      <c r="I406">
-        <v>23.516</v>
-      </c>
-      <c r="J406">
-        <v>2.081</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C406" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C394" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
